--- a/Software/PrototypenPlanung.xlsx
+++ b/Software/PrototypenPlanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Master</author>
+    <author>kunadt</author>
   </authors>
   <commentList>
     <comment ref="B8" authorId="0">
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kunadt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Small lite player implemtenation for the first test steps. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="0">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>VideoGrabber_SIMU</t>
   </si>
@@ -280,22 +305,7 @@
     <t>Project status:</t>
   </si>
   <si>
-    <t>Aufgabe</t>
-  </si>
-  <si>
-    <t>Bearbeiter</t>
-  </si>
-  <si>
     <t>Start</t>
-  </si>
-  <si>
-    <t>Dauer</t>
-  </si>
-  <si>
-    <t>Ende</t>
-  </si>
-  <si>
-    <t>Fortschritt</t>
   </si>
   <si>
     <t>Status</t>
@@ -366,12 +376,36 @@
   <si>
     <t>Streaming</t>
   </si>
+  <si>
+    <t>OpenVX Wrapper</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Effort(h)</t>
+  </si>
+  <si>
+    <t>Durration</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +455,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -579,6 +626,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -594,15 +646,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -651,15 +703,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>6724</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>129988</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>6724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -676,7 +728,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="56863"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -972,5571 +1026,5807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:EI40"/>
+  <dimension ref="B2:EJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="139" width="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="140" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:139">
+    <row r="2" spans="2:140">
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="15"/>
+      <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
-        <v>42436</v>
+      <c r="I2" s="1">
+        <v>42478</v>
       </c>
     </row>
-    <row r="3" spans="2:139">
+    <row r="3" spans="2:140">
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="15"/>
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <f ca="1">TODAY()</f>
-        <v>42425</v>
+        <v>42467</v>
       </c>
     </row>
-    <row r="4" spans="2:139">
+    <row r="4" spans="2:140">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="15"/>
+      <c r="H4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
-        <v>42496</v>
+      <c r="I4" s="1">
+        <v>42531</v>
       </c>
     </row>
-    <row r="6" spans="2:139">
-      <c r="G6" s="9" t="s">
+    <row r="6" spans="2:140">
+      <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
-        <f>AVERAGE(G12:G41)</f>
+      <c r="I6" s="6">
+        <f>AVERAGE(H12:H42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:139">
+    <row r="8" spans="2:140">
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="17" t="str">
-        <f>"KW "&amp;WEEKNUM(H2)</f>
-        <v>KW 11</v>
-      </c>
-      <c r="K8" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="K8" s="17" t="str">
+        <f>"KW "&amp;WEEKNUM(I2)</f>
+        <v>KW 17</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="17" t="str">
-        <f>"KW "&amp;WEEKNUM(Q10)</f>
-        <v>KW 12</v>
-      </c>
-      <c r="R8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17" t="str">
+        <f>"KW "&amp;WEEKNUM(R10)</f>
+        <v>KW 18</v>
+      </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
-      <c r="X8" s="17" t="str">
-        <f t="shared" ref="X8" si="0">"KW "&amp;WEEKNUM(X10)</f>
-        <v>KW 13</v>
-      </c>
-      <c r="Y8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17" t="str">
+        <f t="shared" ref="Y8" si="0">"KW "&amp;WEEKNUM(Y10)</f>
+        <v>KW 19</v>
+      </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
       <c r="AD8" s="17"/>
-      <c r="AE8" s="17" t="str">
-        <f t="shared" ref="AE8" si="1">"KW "&amp;WEEKNUM(AE10)</f>
-        <v>KW 14</v>
-      </c>
-      <c r="AF8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17" t="str">
+        <f t="shared" ref="AF8" si="1">"KW "&amp;WEEKNUM(AF10)</f>
+        <v>KW 20</v>
+      </c>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="17" t="str">
-        <f t="shared" ref="AL8" si="2">"KW "&amp;WEEKNUM(AL10)</f>
-        <v>KW 15</v>
-      </c>
-      <c r="AM8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17" t="str">
+        <f t="shared" ref="AM8" si="2">"KW "&amp;WEEKNUM(AM10)</f>
+        <v>KW 21</v>
+      </c>
       <c r="AN8" s="17"/>
       <c r="AO8" s="17"/>
       <c r="AP8" s="17"/>
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
-      <c r="AS8" s="17" t="str">
-        <f t="shared" ref="AS8" si="3">"KW "&amp;WEEKNUM(AS10)</f>
-        <v>KW 16</v>
-      </c>
-      <c r="AT8" s="17"/>
+      <c r="AS8" s="17"/>
+      <c r="AT8" s="17" t="str">
+        <f t="shared" ref="AT8" si="3">"KW "&amp;WEEKNUM(AT10)</f>
+        <v>KW 22</v>
+      </c>
       <c r="AU8" s="17"/>
       <c r="AV8" s="17"/>
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
-      <c r="AZ8" s="17" t="str">
-        <f t="shared" ref="AZ8" si="4">"KW "&amp;WEEKNUM(AZ10)</f>
-        <v>KW 17</v>
-      </c>
-      <c r="BA8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="17" t="str">
+        <f t="shared" ref="BA8" si="4">"KW "&amp;WEEKNUM(BA10)</f>
+        <v>KW 23</v>
+      </c>
       <c r="BB8" s="17"/>
       <c r="BC8" s="17"/>
       <c r="BD8" s="17"/>
       <c r="BE8" s="17"/>
       <c r="BF8" s="17"/>
-      <c r="BG8" s="17" t="str">
-        <f t="shared" ref="BG8" si="5">"KW "&amp;WEEKNUM(BG10)</f>
-        <v>KW 18</v>
-      </c>
-      <c r="BH8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17" t="str">
+        <f t="shared" ref="BH8" si="5">"KW "&amp;WEEKNUM(BH10)</f>
+        <v>KW 24</v>
+      </c>
       <c r="BI8" s="17"/>
       <c r="BJ8" s="17"/>
       <c r="BK8" s="17"/>
       <c r="BL8" s="17"/>
       <c r="BM8" s="17"/>
-      <c r="BN8" s="17" t="str">
-        <f t="shared" ref="BN8" si="6">"KW "&amp;WEEKNUM(BN10)</f>
-        <v>KW 19</v>
-      </c>
-      <c r="BO8" s="17"/>
+      <c r="BN8" s="17"/>
+      <c r="BO8" s="17" t="str">
+        <f t="shared" ref="BO8" si="6">"KW "&amp;WEEKNUM(BO10)</f>
+        <v>KW 25</v>
+      </c>
       <c r="BP8" s="17"/>
       <c r="BQ8" s="17"/>
       <c r="BR8" s="17"/>
       <c r="BS8" s="17"/>
       <c r="BT8" s="17"/>
-      <c r="BU8" s="17" t="str">
-        <f t="shared" ref="BU8" si="7">"KW "&amp;WEEKNUM(BU10)</f>
-        <v>KW 20</v>
-      </c>
-      <c r="BV8" s="17"/>
+      <c r="BU8" s="17"/>
+      <c r="BV8" s="17" t="str">
+        <f t="shared" ref="BV8" si="7">"KW "&amp;WEEKNUM(BV10)</f>
+        <v>KW 26</v>
+      </c>
       <c r="BW8" s="17"/>
       <c r="BX8" s="17"/>
       <c r="BY8" s="17"/>
       <c r="BZ8" s="17"/>
       <c r="CA8" s="17"/>
-      <c r="CB8" s="17" t="str">
-        <f t="shared" ref="CB8" si="8">"KW "&amp;WEEKNUM(CB10)</f>
-        <v>KW 21</v>
-      </c>
-      <c r="CC8" s="17"/>
+      <c r="CB8" s="17"/>
+      <c r="CC8" s="17" t="str">
+        <f t="shared" ref="CC8" si="8">"KW "&amp;WEEKNUM(CC10)</f>
+        <v>KW 27</v>
+      </c>
       <c r="CD8" s="17"/>
       <c r="CE8" s="17"/>
       <c r="CF8" s="17"/>
       <c r="CG8" s="17"/>
       <c r="CH8" s="17"/>
-      <c r="CI8" s="17" t="str">
-        <f t="shared" ref="CI8" si="9">"KW "&amp;WEEKNUM(CI10)</f>
-        <v>KW 22</v>
-      </c>
-      <c r="CJ8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="17" t="str">
+        <f t="shared" ref="CJ8" si="9">"KW "&amp;WEEKNUM(CJ10)</f>
+        <v>KW 28</v>
+      </c>
       <c r="CK8" s="17"/>
       <c r="CL8" s="17"/>
       <c r="CM8" s="17"/>
       <c r="CN8" s="17"/>
       <c r="CO8" s="17"/>
-      <c r="CP8" s="17" t="str">
-        <f t="shared" ref="CP8" si="10">"KW "&amp;WEEKNUM(CP10)</f>
-        <v>KW 23</v>
-      </c>
-      <c r="CQ8" s="17"/>
+      <c r="CP8" s="17"/>
+      <c r="CQ8" s="17" t="str">
+        <f t="shared" ref="CQ8" si="10">"KW "&amp;WEEKNUM(CQ10)</f>
+        <v>KW 29</v>
+      </c>
       <c r="CR8" s="17"/>
       <c r="CS8" s="17"/>
       <c r="CT8" s="17"/>
       <c r="CU8" s="17"/>
       <c r="CV8" s="17"/>
-      <c r="CW8" s="17" t="str">
-        <f t="shared" ref="CW8" si="11">"KW "&amp;WEEKNUM(CW10)</f>
-        <v>KW 24</v>
-      </c>
-      <c r="CX8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="17" t="str">
+        <f t="shared" ref="CX8" si="11">"KW "&amp;WEEKNUM(CX10)</f>
+        <v>KW 30</v>
+      </c>
       <c r="CY8" s="17"/>
       <c r="CZ8" s="17"/>
       <c r="DA8" s="17"/>
       <c r="DB8" s="17"/>
       <c r="DC8" s="17"/>
-      <c r="DD8" s="17" t="str">
-        <f t="shared" ref="DD8" si="12">"KW "&amp;WEEKNUM(DD10)</f>
-        <v>KW 25</v>
-      </c>
-      <c r="DE8" s="17"/>
+      <c r="DD8" s="17"/>
+      <c r="DE8" s="17" t="str">
+        <f t="shared" ref="DE8" si="12">"KW "&amp;WEEKNUM(DE10)</f>
+        <v>KW 31</v>
+      </c>
       <c r="DF8" s="17"/>
       <c r="DG8" s="17"/>
       <c r="DH8" s="17"/>
       <c r="DI8" s="17"/>
       <c r="DJ8" s="17"/>
-      <c r="DK8" s="17" t="str">
-        <f t="shared" ref="DK8" si="13">"KW "&amp;WEEKNUM(DK10)</f>
-        <v>KW 26</v>
-      </c>
-      <c r="DL8" s="17"/>
+      <c r="DK8" s="17"/>
+      <c r="DL8" s="17" t="str">
+        <f t="shared" ref="DL8" si="13">"KW "&amp;WEEKNUM(DL10)</f>
+        <v>KW 32</v>
+      </c>
       <c r="DM8" s="17"/>
       <c r="DN8" s="17"/>
       <c r="DO8" s="17"/>
       <c r="DP8" s="17"/>
       <c r="DQ8" s="17"/>
-      <c r="DR8" s="17" t="str">
-        <f t="shared" ref="DR8" si="14">"KW "&amp;WEEKNUM(DR10)</f>
-        <v>KW 27</v>
-      </c>
-      <c r="DS8" s="17"/>
+      <c r="DR8" s="17"/>
+      <c r="DS8" s="17" t="str">
+        <f t="shared" ref="DS8" si="14">"KW "&amp;WEEKNUM(DS10)</f>
+        <v>KW 33</v>
+      </c>
       <c r="DT8" s="17"/>
       <c r="DU8" s="17"/>
       <c r="DV8" s="17"/>
       <c r="DW8" s="17"/>
       <c r="DX8" s="17"/>
-      <c r="DY8" s="17" t="str">
-        <f t="shared" ref="DY8" si="15">"KW "&amp;WEEKNUM(DY10)</f>
-        <v>KW 28</v>
-      </c>
-      <c r="DZ8" s="17"/>
+      <c r="DY8" s="17"/>
+      <c r="DZ8" s="17" t="str">
+        <f t="shared" ref="DZ8" si="15">"KW "&amp;WEEKNUM(DZ10)</f>
+        <v>KW 34</v>
+      </c>
       <c r="EA8" s="17"/>
       <c r="EB8" s="17"/>
       <c r="EC8" s="17"/>
       <c r="ED8" s="17"/>
       <c r="EE8" s="17"/>
+      <c r="EF8" s="17"/>
     </row>
-    <row r="9" spans="2:139">
-      <c r="J9" s="16">
-        <f>J10</f>
-        <v>42436</v>
-      </c>
-      <c r="K9" s="16"/>
+    <row r="9" spans="2:140">
+      <c r="K9" s="16">
+        <f>K10</f>
+        <v>42478</v>
+      </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="16">
-        <f t="shared" ref="Q9" si="16">Q10</f>
-        <v>42443</v>
-      </c>
-      <c r="R9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
+        <f t="shared" ref="R9" si="16">R10</f>
+        <v>42485</v>
+      </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="16">
-        <f t="shared" ref="X9" si="17">X10</f>
-        <v>42450</v>
-      </c>
-      <c r="Y9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16">
+        <f t="shared" ref="Y9" si="17">Y10</f>
+        <v>42492</v>
+      </c>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
-      <c r="AE9" s="16">
-        <f t="shared" ref="AE9" si="18">AE10</f>
-        <v>42457</v>
-      </c>
-      <c r="AF9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16">
+        <f t="shared" ref="AF9" si="18">AF10</f>
+        <v>42499</v>
+      </c>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
-      <c r="AL9" s="16">
-        <f t="shared" ref="AL9" si="19">AL10</f>
-        <v>42464</v>
-      </c>
-      <c r="AM9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16">
+        <f t="shared" ref="AM9" si="19">AM10</f>
+        <v>42506</v>
+      </c>
       <c r="AN9" s="16"/>
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
-      <c r="AS9" s="16">
-        <f t="shared" ref="AS9" si="20">AS10</f>
-        <v>42471</v>
-      </c>
-      <c r="AT9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16">
+        <f t="shared" ref="AT9" si="20">AT10</f>
+        <v>42513</v>
+      </c>
       <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
       <c r="AY9" s="16"/>
-      <c r="AZ9" s="16">
-        <f t="shared" ref="AZ9" si="21">AZ10</f>
-        <v>42478</v>
-      </c>
-      <c r="BA9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16">
+        <f t="shared" ref="BA9" si="21">BA10</f>
+        <v>42520</v>
+      </c>
       <c r="BB9" s="16"/>
       <c r="BC9" s="16"/>
       <c r="BD9" s="16"/>
       <c r="BE9" s="16"/>
       <c r="BF9" s="16"/>
-      <c r="BG9" s="16">
-        <f t="shared" ref="BG9" si="22">BG10</f>
-        <v>42485</v>
-      </c>
-      <c r="BH9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16">
+        <f t="shared" ref="BH9" si="22">BH10</f>
+        <v>42527</v>
+      </c>
       <c r="BI9" s="16"/>
       <c r="BJ9" s="16"/>
       <c r="BK9" s="16"/>
       <c r="BL9" s="16"/>
       <c r="BM9" s="16"/>
-      <c r="BN9" s="16">
-        <f t="shared" ref="BN9" si="23">BN10</f>
-        <v>42492</v>
-      </c>
-      <c r="BO9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16">
+        <f t="shared" ref="BO9" si="23">BO10</f>
+        <v>42534</v>
+      </c>
       <c r="BP9" s="16"/>
       <c r="BQ9" s="16"/>
       <c r="BR9" s="16"/>
       <c r="BS9" s="16"/>
       <c r="BT9" s="16"/>
-      <c r="BU9" s="16">
-        <f t="shared" ref="BU9" si="24">BU10</f>
-        <v>42499</v>
-      </c>
-      <c r="BV9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16">
+        <f t="shared" ref="BV9" si="24">BV10</f>
+        <v>42541</v>
+      </c>
       <c r="BW9" s="16"/>
       <c r="BX9" s="16"/>
       <c r="BY9" s="16"/>
       <c r="BZ9" s="16"/>
       <c r="CA9" s="16"/>
-      <c r="CB9" s="16">
-        <f t="shared" ref="CB9" si="25">CB10</f>
-        <v>42506</v>
-      </c>
-      <c r="CC9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16">
+        <f t="shared" ref="CC9" si="25">CC10</f>
+        <v>42548</v>
+      </c>
       <c r="CD9" s="16"/>
       <c r="CE9" s="16"/>
       <c r="CF9" s="16"/>
       <c r="CG9" s="16"/>
       <c r="CH9" s="16"/>
-      <c r="CI9" s="16">
-        <f t="shared" ref="CI9" si="26">CI10</f>
-        <v>42513</v>
-      </c>
-      <c r="CJ9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16">
+        <f t="shared" ref="CJ9" si="26">CJ10</f>
+        <v>42555</v>
+      </c>
       <c r="CK9" s="16"/>
       <c r="CL9" s="16"/>
       <c r="CM9" s="16"/>
       <c r="CN9" s="16"/>
       <c r="CO9" s="16"/>
-      <c r="CP9" s="16">
-        <f t="shared" ref="CP9" si="27">CP10</f>
-        <v>42520</v>
-      </c>
-      <c r="CQ9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16">
+        <f t="shared" ref="CQ9" si="27">CQ10</f>
+        <v>42562</v>
+      </c>
       <c r="CR9" s="16"/>
       <c r="CS9" s="16"/>
       <c r="CT9" s="16"/>
       <c r="CU9" s="16"/>
       <c r="CV9" s="16"/>
-      <c r="CW9" s="16">
-        <f t="shared" ref="CW9" si="28">CW10</f>
-        <v>42527</v>
-      </c>
-      <c r="CX9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16">
+        <f t="shared" ref="CX9" si="28">CX10</f>
+        <v>42569</v>
+      </c>
       <c r="CY9" s="16"/>
       <c r="CZ9" s="16"/>
       <c r="DA9" s="16"/>
       <c r="DB9" s="16"/>
       <c r="DC9" s="16"/>
-      <c r="DD9" s="16">
-        <f t="shared" ref="DD9" si="29">DD10</f>
-        <v>42534</v>
-      </c>
-      <c r="DE9" s="16"/>
+      <c r="DD9" s="16"/>
+      <c r="DE9" s="16">
+        <f t="shared" ref="DE9" si="29">DE10</f>
+        <v>42576</v>
+      </c>
       <c r="DF9" s="16"/>
       <c r="DG9" s="16"/>
       <c r="DH9" s="16"/>
       <c r="DI9" s="16"/>
       <c r="DJ9" s="16"/>
-      <c r="DK9" s="16">
-        <f t="shared" ref="DK9" si="30">DK10</f>
-        <v>42541</v>
-      </c>
-      <c r="DL9" s="16"/>
+      <c r="DK9" s="16"/>
+      <c r="DL9" s="16">
+        <f t="shared" ref="DL9" si="30">DL10</f>
+        <v>42583</v>
+      </c>
       <c r="DM9" s="16"/>
       <c r="DN9" s="16"/>
       <c r="DO9" s="16"/>
       <c r="DP9" s="16"/>
       <c r="DQ9" s="16"/>
-      <c r="DR9" s="16">
-        <f t="shared" ref="DR9" si="31">DR10</f>
-        <v>42548</v>
-      </c>
-      <c r="DS9" s="16"/>
+      <c r="DR9" s="16"/>
+      <c r="DS9" s="16">
+        <f t="shared" ref="DS9" si="31">DS10</f>
+        <v>42590</v>
+      </c>
       <c r="DT9" s="16"/>
       <c r="DU9" s="16"/>
       <c r="DV9" s="16"/>
       <c r="DW9" s="16"/>
       <c r="DX9" s="16"/>
-      <c r="DY9" s="16">
-        <f t="shared" ref="DY9" si="32">DY10</f>
-        <v>42555</v>
-      </c>
-      <c r="DZ9" s="16"/>
+      <c r="DY9" s="16"/>
+      <c r="DZ9" s="16">
+        <f t="shared" ref="DZ9" si="32">DZ10</f>
+        <v>42597</v>
+      </c>
       <c r="EA9" s="16"/>
       <c r="EB9" s="16"/>
       <c r="EC9" s="16"/>
       <c r="ED9" s="16"/>
       <c r="EE9" s="16"/>
-      <c r="EF9" s="5"/>
+      <c r="EF9" s="16"/>
       <c r="EG9" s="5"/>
+      <c r="EH9" s="5"/>
     </row>
-    <row r="10" spans="2:139" ht="15.75" thickBot="1">
-      <c r="J10" s="4">
-        <f>($H$2-WEEKDAY($H$2,2)+1)</f>
-        <v>42436</v>
-      </c>
+    <row r="10" spans="2:140" ht="15.75" thickBot="1">
       <c r="K10" s="4">
-        <f>J10+1</f>
-        <v>42437</v>
+        <f>($I$2-WEEKDAY($I$2,2)+1)</f>
+        <v>42478</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10:BW10" si="33">K10+1</f>
-        <v>42438</v>
+        <f>K10+1</f>
+        <v>42479</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="33"/>
-        <v>42439</v>
+        <f t="shared" ref="M10:BX10" si="33">L10+1</f>
+        <v>42480</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="33"/>
-        <v>42440</v>
+        <v>42481</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="33"/>
-        <v>42441</v>
+        <v>42482</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="33"/>
-        <v>42442</v>
+        <v>42483</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="33"/>
-        <v>42443</v>
+        <v>42484</v>
       </c>
       <c r="R10" s="4">
         <f t="shared" si="33"/>
-        <v>42444</v>
+        <v>42485</v>
       </c>
       <c r="S10" s="4">
         <f t="shared" si="33"/>
-        <v>42445</v>
+        <v>42486</v>
       </c>
       <c r="T10" s="4">
         <f t="shared" si="33"/>
-        <v>42446</v>
+        <v>42487</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="33"/>
-        <v>42447</v>
+        <v>42488</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="33"/>
-        <v>42448</v>
+        <v>42489</v>
       </c>
       <c r="W10" s="4">
         <f t="shared" si="33"/>
-        <v>42449</v>
+        <v>42490</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="33"/>
-        <v>42450</v>
+        <v>42491</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="33"/>
-        <v>42451</v>
+        <v>42492</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="33"/>
-        <v>42452</v>
+        <v>42493</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="33"/>
-        <v>42453</v>
+        <v>42494</v>
       </c>
       <c r="AB10" s="4">
         <f t="shared" si="33"/>
-        <v>42454</v>
+        <v>42495</v>
       </c>
       <c r="AC10" s="4">
         <f t="shared" si="33"/>
-        <v>42455</v>
+        <v>42496</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="33"/>
-        <v>42456</v>
+        <v>42497</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="33"/>
-        <v>42457</v>
+        <v>42498</v>
       </c>
       <c r="AF10" s="4">
         <f t="shared" si="33"/>
-        <v>42458</v>
+        <v>42499</v>
       </c>
       <c r="AG10" s="4">
         <f t="shared" si="33"/>
-        <v>42459</v>
+        <v>42500</v>
       </c>
       <c r="AH10" s="4">
         <f t="shared" si="33"/>
-        <v>42460</v>
+        <v>42501</v>
       </c>
       <c r="AI10" s="4">
         <f t="shared" si="33"/>
-        <v>42461</v>
+        <v>42502</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="33"/>
-        <v>42462</v>
+        <v>42503</v>
       </c>
       <c r="AK10" s="4">
         <f t="shared" si="33"/>
-        <v>42463</v>
+        <v>42504</v>
       </c>
       <c r="AL10" s="4">
         <f t="shared" si="33"/>
-        <v>42464</v>
+        <v>42505</v>
       </c>
       <c r="AM10" s="4">
         <f t="shared" si="33"/>
-        <v>42465</v>
+        <v>42506</v>
       </c>
       <c r="AN10" s="4">
         <f t="shared" si="33"/>
-        <v>42466</v>
+        <v>42507</v>
       </c>
       <c r="AO10" s="4">
         <f t="shared" si="33"/>
-        <v>42467</v>
+        <v>42508</v>
       </c>
       <c r="AP10" s="4">
         <f t="shared" si="33"/>
-        <v>42468</v>
+        <v>42509</v>
       </c>
       <c r="AQ10" s="4">
         <f t="shared" si="33"/>
-        <v>42469</v>
+        <v>42510</v>
       </c>
       <c r="AR10" s="4">
         <f t="shared" si="33"/>
-        <v>42470</v>
+        <v>42511</v>
       </c>
       <c r="AS10" s="4">
         <f t="shared" si="33"/>
-        <v>42471</v>
+        <v>42512</v>
       </c>
       <c r="AT10" s="4">
         <f t="shared" si="33"/>
-        <v>42472</v>
+        <v>42513</v>
       </c>
       <c r="AU10" s="4">
         <f t="shared" si="33"/>
-        <v>42473</v>
+        <v>42514</v>
       </c>
       <c r="AV10" s="4">
         <f t="shared" si="33"/>
-        <v>42474</v>
+        <v>42515</v>
       </c>
       <c r="AW10" s="4">
         <f t="shared" si="33"/>
-        <v>42475</v>
+        <v>42516</v>
       </c>
       <c r="AX10" s="4">
         <f t="shared" si="33"/>
-        <v>42476</v>
+        <v>42517</v>
       </c>
       <c r="AY10" s="4">
         <f t="shared" si="33"/>
-        <v>42477</v>
+        <v>42518</v>
       </c>
       <c r="AZ10" s="4">
         <f t="shared" si="33"/>
-        <v>42478</v>
+        <v>42519</v>
       </c>
       <c r="BA10" s="4">
         <f t="shared" si="33"/>
-        <v>42479</v>
+        <v>42520</v>
       </c>
       <c r="BB10" s="4">
         <f t="shared" si="33"/>
-        <v>42480</v>
+        <v>42521</v>
       </c>
       <c r="BC10" s="4">
         <f t="shared" si="33"/>
-        <v>42481</v>
+        <v>42522</v>
       </c>
       <c r="BD10" s="4">
         <f t="shared" si="33"/>
-        <v>42482</v>
+        <v>42523</v>
       </c>
       <c r="BE10" s="4">
         <f t="shared" si="33"/>
-        <v>42483</v>
+        <v>42524</v>
       </c>
       <c r="BF10" s="4">
         <f t="shared" si="33"/>
-        <v>42484</v>
+        <v>42525</v>
       </c>
       <c r="BG10" s="4">
         <f t="shared" si="33"/>
-        <v>42485</v>
+        <v>42526</v>
       </c>
       <c r="BH10" s="4">
         <f t="shared" si="33"/>
-        <v>42486</v>
+        <v>42527</v>
       </c>
       <c r="BI10" s="4">
         <f t="shared" si="33"/>
-        <v>42487</v>
+        <v>42528</v>
       </c>
       <c r="BJ10" s="4">
         <f t="shared" si="33"/>
-        <v>42488</v>
+        <v>42529</v>
       </c>
       <c r="BK10" s="4">
         <f t="shared" si="33"/>
-        <v>42489</v>
+        <v>42530</v>
       </c>
       <c r="BL10" s="4">
         <f t="shared" si="33"/>
-        <v>42490</v>
+        <v>42531</v>
       </c>
       <c r="BM10" s="4">
         <f t="shared" si="33"/>
-        <v>42491</v>
+        <v>42532</v>
       </c>
       <c r="BN10" s="4">
         <f t="shared" si="33"/>
-        <v>42492</v>
+        <v>42533</v>
       </c>
       <c r="BO10" s="4">
         <f t="shared" si="33"/>
-        <v>42493</v>
+        <v>42534</v>
       </c>
       <c r="BP10" s="4">
         <f t="shared" si="33"/>
-        <v>42494</v>
+        <v>42535</v>
       </c>
       <c r="BQ10" s="4">
         <f t="shared" si="33"/>
-        <v>42495</v>
+        <v>42536</v>
       </c>
       <c r="BR10" s="4">
         <f t="shared" si="33"/>
-        <v>42496</v>
+        <v>42537</v>
       </c>
       <c r="BS10" s="4">
         <f t="shared" si="33"/>
-        <v>42497</v>
+        <v>42538</v>
       </c>
       <c r="BT10" s="4">
         <f t="shared" si="33"/>
-        <v>42498</v>
+        <v>42539</v>
       </c>
       <c r="BU10" s="4">
         <f t="shared" si="33"/>
-        <v>42499</v>
+        <v>42540</v>
       </c>
       <c r="BV10" s="4">
         <f t="shared" si="33"/>
-        <v>42500</v>
+        <v>42541</v>
       </c>
       <c r="BW10" s="4">
         <f t="shared" si="33"/>
-        <v>42501</v>
+        <v>42542</v>
       </c>
       <c r="BX10" s="4">
-        <f t="shared" ref="BX10:EI10" si="34">BW10+1</f>
-        <v>42502</v>
+        <f t="shared" si="33"/>
+        <v>42543</v>
       </c>
       <c r="BY10" s="4">
-        <f t="shared" si="34"/>
-        <v>42503</v>
+        <f t="shared" ref="BY10:EJ10" si="34">BX10+1</f>
+        <v>42544</v>
       </c>
       <c r="BZ10" s="4">
         <f t="shared" si="34"/>
-        <v>42504</v>
+        <v>42545</v>
       </c>
       <c r="CA10" s="4">
         <f t="shared" si="34"/>
-        <v>42505</v>
+        <v>42546</v>
       </c>
       <c r="CB10" s="4">
         <f t="shared" si="34"/>
-        <v>42506</v>
+        <v>42547</v>
       </c>
       <c r="CC10" s="4">
         <f t="shared" si="34"/>
-        <v>42507</v>
+        <v>42548</v>
       </c>
       <c r="CD10" s="4">
         <f t="shared" si="34"/>
-        <v>42508</v>
+        <v>42549</v>
       </c>
       <c r="CE10" s="4">
         <f t="shared" si="34"/>
-        <v>42509</v>
+        <v>42550</v>
       </c>
       <c r="CF10" s="4">
         <f t="shared" si="34"/>
-        <v>42510</v>
+        <v>42551</v>
       </c>
       <c r="CG10" s="4">
         <f t="shared" si="34"/>
-        <v>42511</v>
+        <v>42552</v>
       </c>
       <c r="CH10" s="4">
         <f t="shared" si="34"/>
-        <v>42512</v>
+        <v>42553</v>
       </c>
       <c r="CI10" s="4">
         <f t="shared" si="34"/>
-        <v>42513</v>
+        <v>42554</v>
       </c>
       <c r="CJ10" s="4">
         <f t="shared" si="34"/>
-        <v>42514</v>
+        <v>42555</v>
       </c>
       <c r="CK10" s="4">
         <f t="shared" si="34"/>
-        <v>42515</v>
+        <v>42556</v>
       </c>
       <c r="CL10" s="4">
         <f t="shared" si="34"/>
-        <v>42516</v>
+        <v>42557</v>
       </c>
       <c r="CM10" s="4">
         <f t="shared" si="34"/>
-        <v>42517</v>
+        <v>42558</v>
       </c>
       <c r="CN10" s="4">
         <f t="shared" si="34"/>
-        <v>42518</v>
+        <v>42559</v>
       </c>
       <c r="CO10" s="4">
         <f t="shared" si="34"/>
-        <v>42519</v>
+        <v>42560</v>
       </c>
       <c r="CP10" s="4">
         <f t="shared" si="34"/>
-        <v>42520</v>
+        <v>42561</v>
       </c>
       <c r="CQ10" s="4">
         <f t="shared" si="34"/>
-        <v>42521</v>
+        <v>42562</v>
       </c>
       <c r="CR10" s="4">
         <f t="shared" si="34"/>
-        <v>42522</v>
+        <v>42563</v>
       </c>
       <c r="CS10" s="4">
         <f t="shared" si="34"/>
-        <v>42523</v>
+        <v>42564</v>
       </c>
       <c r="CT10" s="4">
         <f t="shared" si="34"/>
-        <v>42524</v>
+        <v>42565</v>
       </c>
       <c r="CU10" s="4">
         <f t="shared" si="34"/>
-        <v>42525</v>
+        <v>42566</v>
       </c>
       <c r="CV10" s="4">
         <f t="shared" si="34"/>
-        <v>42526</v>
+        <v>42567</v>
       </c>
       <c r="CW10" s="4">
         <f t="shared" si="34"/>
-        <v>42527</v>
+        <v>42568</v>
       </c>
       <c r="CX10" s="4">
         <f t="shared" si="34"/>
-        <v>42528</v>
+        <v>42569</v>
       </c>
       <c r="CY10" s="4">
         <f t="shared" si="34"/>
-        <v>42529</v>
+        <v>42570</v>
       </c>
       <c r="CZ10" s="4">
         <f t="shared" si="34"/>
-        <v>42530</v>
+        <v>42571</v>
       </c>
       <c r="DA10" s="4">
         <f t="shared" si="34"/>
-        <v>42531</v>
+        <v>42572</v>
       </c>
       <c r="DB10" s="4">
         <f t="shared" si="34"/>
-        <v>42532</v>
+        <v>42573</v>
       </c>
       <c r="DC10" s="4">
         <f t="shared" si="34"/>
-        <v>42533</v>
+        <v>42574</v>
       </c>
       <c r="DD10" s="4">
         <f t="shared" si="34"/>
-        <v>42534</v>
+        <v>42575</v>
       </c>
       <c r="DE10" s="4">
         <f t="shared" si="34"/>
-        <v>42535</v>
+        <v>42576</v>
       </c>
       <c r="DF10" s="4">
         <f t="shared" si="34"/>
-        <v>42536</v>
+        <v>42577</v>
       </c>
       <c r="DG10" s="4">
         <f t="shared" si="34"/>
-        <v>42537</v>
+        <v>42578</v>
       </c>
       <c r="DH10" s="4">
         <f t="shared" si="34"/>
-        <v>42538</v>
+        <v>42579</v>
       </c>
       <c r="DI10" s="4">
         <f t="shared" si="34"/>
-        <v>42539</v>
+        <v>42580</v>
       </c>
       <c r="DJ10" s="4">
         <f t="shared" si="34"/>
-        <v>42540</v>
+        <v>42581</v>
       </c>
       <c r="DK10" s="4">
         <f t="shared" si="34"/>
-        <v>42541</v>
+        <v>42582</v>
       </c>
       <c r="DL10" s="4">
         <f t="shared" si="34"/>
-        <v>42542</v>
+        <v>42583</v>
       </c>
       <c r="DM10" s="4">
         <f t="shared" si="34"/>
-        <v>42543</v>
+        <v>42584</v>
       </c>
       <c r="DN10" s="4">
         <f t="shared" si="34"/>
-        <v>42544</v>
+        <v>42585</v>
       </c>
       <c r="DO10" s="4">
         <f t="shared" si="34"/>
-        <v>42545</v>
+        <v>42586</v>
       </c>
       <c r="DP10" s="4">
         <f t="shared" si="34"/>
-        <v>42546</v>
+        <v>42587</v>
       </c>
       <c r="DQ10" s="4">
         <f t="shared" si="34"/>
-        <v>42547</v>
+        <v>42588</v>
       </c>
       <c r="DR10" s="4">
         <f t="shared" si="34"/>
-        <v>42548</v>
+        <v>42589</v>
       </c>
       <c r="DS10" s="4">
         <f t="shared" si="34"/>
-        <v>42549</v>
+        <v>42590</v>
       </c>
       <c r="DT10" s="4">
         <f t="shared" si="34"/>
-        <v>42550</v>
+        <v>42591</v>
       </c>
       <c r="DU10" s="4">
         <f t="shared" si="34"/>
-        <v>42551</v>
+        <v>42592</v>
       </c>
       <c r="DV10" s="4">
         <f t="shared" si="34"/>
-        <v>42552</v>
+        <v>42593</v>
       </c>
       <c r="DW10" s="4">
         <f t="shared" si="34"/>
-        <v>42553</v>
+        <v>42594</v>
       </c>
       <c r="DX10" s="4">
         <f t="shared" si="34"/>
-        <v>42554</v>
+        <v>42595</v>
       </c>
       <c r="DY10" s="4">
         <f t="shared" si="34"/>
-        <v>42555</v>
+        <v>42596</v>
       </c>
       <c r="DZ10" s="4">
         <f t="shared" si="34"/>
-        <v>42556</v>
+        <v>42597</v>
       </c>
       <c r="EA10" s="4">
         <f t="shared" si="34"/>
-        <v>42557</v>
+        <v>42598</v>
       </c>
       <c r="EB10" s="4">
         <f t="shared" si="34"/>
-        <v>42558</v>
+        <v>42599</v>
       </c>
       <c r="EC10" s="4">
         <f t="shared" si="34"/>
-        <v>42559</v>
+        <v>42600</v>
       </c>
       <c r="ED10" s="4">
         <f t="shared" si="34"/>
-        <v>42560</v>
+        <v>42601</v>
       </c>
       <c r="EE10" s="4">
         <f t="shared" si="34"/>
-        <v>42561</v>
+        <v>42602</v>
       </c>
       <c r="EF10" s="4">
         <f t="shared" si="34"/>
-        <v>42562</v>
+        <v>42603</v>
       </c>
       <c r="EG10" s="4">
         <f t="shared" si="34"/>
-        <v>42563</v>
+        <v>42604</v>
       </c>
       <c r="EH10" s="4">
         <f t="shared" si="34"/>
-        <v>42564</v>
+        <v>42605</v>
       </c>
       <c r="EI10" s="4">
         <f t="shared" si="34"/>
-        <v>42565</v>
+        <v>42606</v>
+      </c>
+      <c r="EJ10" s="4">
+        <f t="shared" si="34"/>
+        <v>42607</v>
       </c>
     </row>
-    <row r="11" spans="2:139" ht="15.75" thickBot="1">
+    <row r="11" spans="2:140" ht="15.75" thickBot="1">
       <c r="B11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="K11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="L11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="M11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="P11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BT11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BU11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CA11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CB11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CC11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CI11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CM11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CP11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CT11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CV11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CY11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DA11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DB11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DD11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DE11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DF11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DG11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DH11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DI11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DJ11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DK11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DL11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DM11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DN11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DP11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DQ11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DR11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DS11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DT11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DU11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DV11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DW11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DZ11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EA11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EB11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EC11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="ED11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="EE11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="EF11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="EG11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EH11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="EI11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EJ11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:140">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="D12">
         <v>16</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BD11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BH11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BI11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BJ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BN11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BO11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BP11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BQ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BR11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BT11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="BU11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BW11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BX11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BY11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BZ11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CA11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CB11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CC11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CD11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CE11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CF11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="CG11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CH11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CI11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CJ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CK11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="CN11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CO11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CP11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CQ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CS11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CT11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="CU11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CV11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CW11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CY11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="CZ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DA11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DB11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DC11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DD11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DE11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DF11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DG11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DH11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DI11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DJ11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DK11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DL11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DM11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DN11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DO11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DP11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DQ11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DR11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DS11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DT11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DU11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DV11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="DW11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DX11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="DY11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="DZ11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="EA11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="EB11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="EC11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="ED11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EE11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="EF11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="EG11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="EH11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="EI11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:139">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <f>H2</f>
-        <v>42436</v>
-      </c>
-      <c r="E12">
+      <c r="E12" s="1">
+        <f>I2</f>
+        <v>42478</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
-        <f>WORKDAY(IF(WEEKDAY(D12,1)=7,D12+2,IF(WEEKDAY(D12,1)=1,D12+1,D12)),E12-1,)</f>
-        <v>42437</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="G12" s="1">
+        <f>WORKDAY(IF(WEEKDAY(E12,1)=7,E12+2,IF(WEEKDAY(E12,1)=1,E12+1,E12)),F12-1,)</f>
+        <v>42479</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <f>WORKDAY(IF(WEEKDAY(D12,1)=7,D12+2,IF(WEEKDAY(D12,1)=1,D12+1,D12)),H12-1,)</f>
-        <v>42433</v>
-      </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="1">
+        <f>WORKDAY(IF(WEEKDAY(E12,1)=7,E12+2,IF(WEEKDAY(E12,1)=1,E12+1,E12)),I12-1,)</f>
+        <v>42475</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="8"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="8"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="7"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="8"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="8"/>
+      <c r="AC12" s="7"/>
       <c r="AD12" s="8"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="8"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="8"/>
+      <c r="AJ12" s="7"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="7"/>
+      <c r="AL12" s="8"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
-      <c r="AQ12" s="8"/>
+      <c r="AQ12" s="7"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="7"/>
+      <c r="AS12" s="8"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
       <c r="AW12" s="7"/>
-      <c r="AX12" s="8"/>
+      <c r="AX12" s="7"/>
       <c r="AY12" s="8"/>
-      <c r="AZ12" s="7"/>
+      <c r="AZ12" s="8"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
       <c r="BC12" s="7"/>
       <c r="BD12" s="7"/>
-      <c r="BE12" s="8"/>
+      <c r="BE12" s="7"/>
       <c r="BF12" s="8"/>
-      <c r="BG12" s="7"/>
+      <c r="BG12" s="8"/>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
-      <c r="BL12" s="8"/>
+      <c r="BL12" s="7"/>
       <c r="BM12" s="8"/>
-      <c r="BN12" s="7"/>
+      <c r="BN12" s="8"/>
       <c r="BO12" s="7"/>
       <c r="BP12" s="7"/>
       <c r="BQ12" s="7"/>
       <c r="BR12" s="7"/>
-      <c r="BS12" s="8"/>
+      <c r="BS12" s="7"/>
       <c r="BT12" s="8"/>
-      <c r="BU12" s="7"/>
+      <c r="BU12" s="8"/>
       <c r="BV12" s="7"/>
       <c r="BW12" s="7"/>
       <c r="BX12" s="7"/>
       <c r="BY12" s="7"/>
-      <c r="BZ12" s="8"/>
+      <c r="BZ12" s="7"/>
       <c r="CA12" s="8"/>
-      <c r="CB12" s="7"/>
+      <c r="CB12" s="8"/>
       <c r="CC12" s="7"/>
       <c r="CD12" s="7"/>
       <c r="CE12" s="7"/>
       <c r="CF12" s="7"/>
-      <c r="CG12" s="8"/>
+      <c r="CG12" s="7"/>
       <c r="CH12" s="8"/>
-      <c r="CI12" s="7"/>
+      <c r="CI12" s="8"/>
       <c r="CJ12" s="7"/>
       <c r="CK12" s="7"/>
       <c r="CL12" s="7"/>
       <c r="CM12" s="7"/>
-      <c r="CN12" s="8"/>
+      <c r="CN12" s="7"/>
       <c r="CO12" s="8"/>
-      <c r="CP12" s="7"/>
+      <c r="CP12" s="8"/>
       <c r="CQ12" s="7"/>
       <c r="CR12" s="7"/>
       <c r="CS12" s="7"/>
       <c r="CT12" s="7"/>
-      <c r="CU12" s="8"/>
+      <c r="CU12" s="7"/>
       <c r="CV12" s="8"/>
-      <c r="CW12" s="7"/>
+      <c r="CW12" s="8"/>
       <c r="CX12" s="7"/>
       <c r="CY12" s="7"/>
       <c r="CZ12" s="7"/>
       <c r="DA12" s="7"/>
-      <c r="DB12" s="8"/>
+      <c r="DB12" s="7"/>
       <c r="DC12" s="8"/>
-      <c r="DD12" s="7"/>
+      <c r="DD12" s="8"/>
       <c r="DE12" s="7"/>
       <c r="DF12" s="7"/>
       <c r="DG12" s="7"/>
       <c r="DH12" s="7"/>
-      <c r="DI12" s="8"/>
+      <c r="DI12" s="7"/>
       <c r="DJ12" s="8"/>
-      <c r="DK12" s="7"/>
+      <c r="DK12" s="8"/>
       <c r="DL12" s="7"/>
       <c r="DM12" s="7"/>
       <c r="DN12" s="7"/>
       <c r="DO12" s="7"/>
-      <c r="DP12" s="8"/>
+      <c r="DP12" s="7"/>
       <c r="DQ12" s="8"/>
-      <c r="DR12" s="7"/>
+      <c r="DR12" s="8"/>
       <c r="DS12" s="7"/>
       <c r="DT12" s="7"/>
       <c r="DU12" s="7"/>
       <c r="DV12" s="7"/>
-      <c r="DW12" s="8"/>
+      <c r="DW12" s="7"/>
       <c r="DX12" s="8"/>
-      <c r="DY12" s="7"/>
+      <c r="DY12" s="8"/>
       <c r="DZ12" s="7"/>
       <c r="EA12" s="7"/>
       <c r="EB12" s="7"/>
       <c r="EC12" s="7"/>
-      <c r="ED12" s="8"/>
+      <c r="ED12" s="7"/>
       <c r="EE12" s="8"/>
+      <c r="EF12" s="8"/>
     </row>
-    <row r="13" spans="2:139">
+    <row r="13" spans="2:140">
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42479</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <f>WORKDAY(IF(WEEKDAY(E13,1)=7,E13+2,IF(WEEKDAY(E13,1)=1,E13+1,E13)),F13-1,)</f>
+        <v>42485</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>42438</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:F29" si="35">WORKDAY(IF(WEEKDAY(D13,1)=7,D13+2,IF(WEEKDAY(D13,1)=1,D13+1,D13)),E13-1,)</f>
-        <v>42440</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13:I40" si="36">WORKDAY(IF(WEEKDAY(D13,1)=7,D13+2,IF(WEEKDAY(D13,1)=1,D13+1,D13)),H13-1,)</f>
-        <v>42437</v>
-      </c>
-      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
+      <c r="O13" s="7"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="8"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
-      <c r="V13" s="8"/>
+      <c r="V13" s="7"/>
       <c r="W13" s="8"/>
-      <c r="X13" s="7"/>
+      <c r="X13" s="8"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="8"/>
+      <c r="AC13" s="7"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="8"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
       <c r="AI13" s="7"/>
-      <c r="AJ13" s="8"/>
+      <c r="AJ13" s="7"/>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="7"/>
+      <c r="AL13" s="8"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
       <c r="AP13" s="7"/>
-      <c r="AQ13" s="8"/>
+      <c r="AQ13" s="7"/>
       <c r="AR13" s="8"/>
-      <c r="AS13" s="7"/>
+      <c r="AS13" s="8"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
       <c r="AW13" s="7"/>
-      <c r="AX13" s="8"/>
+      <c r="AX13" s="7"/>
       <c r="AY13" s="8"/>
-      <c r="AZ13" s="7"/>
+      <c r="AZ13" s="8"/>
       <c r="BA13" s="7"/>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
       <c r="BD13" s="7"/>
-      <c r="BE13" s="8"/>
+      <c r="BE13" s="7"/>
       <c r="BF13" s="8"/>
-      <c r="BG13" s="7"/>
+      <c r="BG13" s="8"/>
       <c r="BH13" s="7"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="7"/>
       <c r="BK13" s="7"/>
-      <c r="BL13" s="8"/>
+      <c r="BL13" s="7"/>
       <c r="BM13" s="8"/>
-      <c r="BN13" s="7"/>
+      <c r="BN13" s="8"/>
       <c r="BO13" s="7"/>
       <c r="BP13" s="7"/>
       <c r="BQ13" s="7"/>
       <c r="BR13" s="7"/>
-      <c r="BS13" s="8"/>
+      <c r="BS13" s="7"/>
       <c r="BT13" s="8"/>
-      <c r="BU13" s="7"/>
+      <c r="BU13" s="8"/>
       <c r="BV13" s="7"/>
       <c r="BW13" s="7"/>
       <c r="BX13" s="7"/>
       <c r="BY13" s="7"/>
-      <c r="BZ13" s="8"/>
+      <c r="BZ13" s="7"/>
       <c r="CA13" s="8"/>
-      <c r="CB13" s="7"/>
+      <c r="CB13" s="8"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="7"/>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
-      <c r="CG13" s="8"/>
+      <c r="CG13" s="7"/>
       <c r="CH13" s="8"/>
-      <c r="CI13" s="7"/>
+      <c r="CI13" s="8"/>
       <c r="CJ13" s="7"/>
       <c r="CK13" s="7"/>
       <c r="CL13" s="7"/>
       <c r="CM13" s="7"/>
-      <c r="CN13" s="8"/>
+      <c r="CN13" s="7"/>
       <c r="CO13" s="8"/>
-      <c r="CP13" s="7"/>
+      <c r="CP13" s="8"/>
       <c r="CQ13" s="7"/>
       <c r="CR13" s="7"/>
       <c r="CS13" s="7"/>
       <c r="CT13" s="7"/>
-      <c r="CU13" s="8"/>
+      <c r="CU13" s="7"/>
       <c r="CV13" s="8"/>
-      <c r="CW13" s="7"/>
+      <c r="CW13" s="8"/>
       <c r="CX13" s="7"/>
       <c r="CY13" s="7"/>
       <c r="CZ13" s="7"/>
       <c r="DA13" s="7"/>
-      <c r="DB13" s="8"/>
+      <c r="DB13" s="7"/>
       <c r="DC13" s="8"/>
-      <c r="DD13" s="7"/>
+      <c r="DD13" s="8"/>
       <c r="DE13" s="7"/>
       <c r="DF13" s="7"/>
       <c r="DG13" s="7"/>
       <c r="DH13" s="7"/>
-      <c r="DI13" s="8"/>
+      <c r="DI13" s="7"/>
       <c r="DJ13" s="8"/>
-      <c r="DK13" s="7"/>
+      <c r="DK13" s="8"/>
       <c r="DL13" s="7"/>
       <c r="DM13" s="7"/>
       <c r="DN13" s="7"/>
       <c r="DO13" s="7"/>
-      <c r="DP13" s="8"/>
+      <c r="DP13" s="7"/>
       <c r="DQ13" s="8"/>
-      <c r="DR13" s="7"/>
+      <c r="DR13" s="8"/>
       <c r="DS13" s="7"/>
       <c r="DT13" s="7"/>
       <c r="DU13" s="7"/>
       <c r="DV13" s="7"/>
-      <c r="DW13" s="8"/>
+      <c r="DW13" s="7"/>
       <c r="DX13" s="8"/>
-      <c r="DY13" s="7"/>
+      <c r="DY13" s="8"/>
       <c r="DZ13" s="7"/>
       <c r="EA13" s="7"/>
       <c r="EB13" s="7"/>
       <c r="EC13" s="7"/>
-      <c r="ED13" s="8"/>
+      <c r="ED13" s="7"/>
       <c r="EE13" s="8"/>
+      <c r="EF13" s="8"/>
     </row>
-    <row r="14" spans="2:139">
+    <row r="14" spans="2:140">
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42441</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="35"/>
-        <v>42444</v>
-      </c>
-      <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="36"/>
-        <v>42440</v>
-      </c>
-      <c r="J14" s="7"/>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>42485</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G30" si="35">WORKDAY(IF(WEEKDAY(E14,1)=7,E14+2,IF(WEEKDAY(E14,1)=1,E14+1,E14)),F14-1,)</f>
+        <v>42487</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J41" si="36">WORKDAY(IF(WEEKDAY(E14,1)=7,E14+2,IF(WEEKDAY(E14,1)=1,E14+1,E14)),I14-1,)</f>
+        <v>42482</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="8"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="8"/>
+      <c r="V14" s="7"/>
       <c r="W14" s="8"/>
-      <c r="X14" s="7"/>
+      <c r="X14" s="8"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-      <c r="AC14" s="8"/>
+      <c r="AC14" s="7"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="8"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
-      <c r="AJ14" s="8"/>
+      <c r="AJ14" s="7"/>
       <c r="AK14" s="8"/>
-      <c r="AL14" s="7"/>
+      <c r="AL14" s="8"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
-      <c r="AQ14" s="8"/>
+      <c r="AQ14" s="7"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="7"/>
+      <c r="AS14" s="8"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
       <c r="AW14" s="7"/>
-      <c r="AX14" s="8"/>
+      <c r="AX14" s="7"/>
       <c r="AY14" s="8"/>
-      <c r="AZ14" s="7"/>
+      <c r="AZ14" s="8"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
-      <c r="BE14" s="8"/>
+      <c r="BE14" s="7"/>
       <c r="BF14" s="8"/>
-      <c r="BG14" s="7"/>
+      <c r="BG14" s="8"/>
       <c r="BH14" s="7"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="7"/>
       <c r="BK14" s="7"/>
-      <c r="BL14" s="8"/>
+      <c r="BL14" s="7"/>
       <c r="BM14" s="8"/>
-      <c r="BN14" s="7"/>
+      <c r="BN14" s="8"/>
       <c r="BO14" s="7"/>
       <c r="BP14" s="7"/>
       <c r="BQ14" s="7"/>
       <c r="BR14" s="7"/>
-      <c r="BS14" s="8"/>
+      <c r="BS14" s="7"/>
       <c r="BT14" s="8"/>
-      <c r="BU14" s="7"/>
+      <c r="BU14" s="8"/>
       <c r="BV14" s="7"/>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
       <c r="BY14" s="7"/>
-      <c r="BZ14" s="8"/>
+      <c r="BZ14" s="7"/>
       <c r="CA14" s="8"/>
-      <c r="CB14" s="7"/>
+      <c r="CB14" s="8"/>
       <c r="CC14" s="7"/>
       <c r="CD14" s="7"/>
       <c r="CE14" s="7"/>
       <c r="CF14" s="7"/>
-      <c r="CG14" s="8"/>
+      <c r="CG14" s="7"/>
       <c r="CH14" s="8"/>
-      <c r="CI14" s="7"/>
+      <c r="CI14" s="8"/>
       <c r="CJ14" s="7"/>
       <c r="CK14" s="7"/>
       <c r="CL14" s="7"/>
       <c r="CM14" s="7"/>
-      <c r="CN14" s="8"/>
+      <c r="CN14" s="7"/>
       <c r="CO14" s="8"/>
-      <c r="CP14" s="7"/>
+      <c r="CP14" s="8"/>
       <c r="CQ14" s="7"/>
       <c r="CR14" s="7"/>
       <c r="CS14" s="7"/>
       <c r="CT14" s="7"/>
-      <c r="CU14" s="8"/>
+      <c r="CU14" s="7"/>
       <c r="CV14" s="8"/>
-      <c r="CW14" s="7"/>
+      <c r="CW14" s="8"/>
       <c r="CX14" s="7"/>
       <c r="CY14" s="7"/>
       <c r="CZ14" s="7"/>
       <c r="DA14" s="7"/>
-      <c r="DB14" s="8"/>
+      <c r="DB14" s="7"/>
       <c r="DC14" s="8"/>
-      <c r="DD14" s="7"/>
+      <c r="DD14" s="8"/>
       <c r="DE14" s="7"/>
       <c r="DF14" s="7"/>
       <c r="DG14" s="7"/>
       <c r="DH14" s="7"/>
-      <c r="DI14" s="8"/>
+      <c r="DI14" s="7"/>
       <c r="DJ14" s="8"/>
-      <c r="DK14" s="7"/>
+      <c r="DK14" s="8"/>
       <c r="DL14" s="7"/>
       <c r="DM14" s="7"/>
       <c r="DN14" s="7"/>
       <c r="DO14" s="7"/>
-      <c r="DP14" s="8"/>
+      <c r="DP14" s="7"/>
       <c r="DQ14" s="8"/>
-      <c r="DR14" s="7"/>
+      <c r="DR14" s="8"/>
       <c r="DS14" s="7"/>
       <c r="DT14" s="7"/>
       <c r="DU14" s="7"/>
       <c r="DV14" s="7"/>
-      <c r="DW14" s="8"/>
+      <c r="DW14" s="7"/>
       <c r="DX14" s="8"/>
-      <c r="DY14" s="7"/>
+      <c r="DY14" s="8"/>
       <c r="DZ14" s="7"/>
       <c r="EA14" s="7"/>
       <c r="EB14" s="7"/>
       <c r="EC14" s="7"/>
-      <c r="ED14" s="8"/>
+      <c r="ED14" s="7"/>
       <c r="EE14" s="8"/>
+      <c r="EF14" s="8"/>
     </row>
-    <row r="15" spans="2:139">
+    <row r="15" spans="2:140">
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42438</v>
-      </c>
-      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="35"/>
-        <v>42451</v>
-      </c>
-      <c r="G15" s="6">
+        <v>42489</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="36"/>
-        <v>42437</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>42487</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="8"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
+      <c r="V15" s="7"/>
       <c r="W15" s="8"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="8"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-      <c r="AC15" s="8"/>
+      <c r="AC15" s="7"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="7"/>
+      <c r="AE15" s="8"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="7"/>
-      <c r="AJ15" s="8"/>
+      <c r="AJ15" s="7"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="7"/>
+      <c r="AL15" s="8"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="7"/>
-      <c r="AQ15" s="8"/>
+      <c r="AQ15" s="7"/>
       <c r="AR15" s="8"/>
-      <c r="AS15" s="7"/>
+      <c r="AS15" s="8"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
       <c r="AW15" s="7"/>
-      <c r="AX15" s="8"/>
+      <c r="AX15" s="7"/>
       <c r="AY15" s="8"/>
-      <c r="AZ15" s="7"/>
+      <c r="AZ15" s="8"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
       <c r="BD15" s="7"/>
-      <c r="BE15" s="8"/>
+      <c r="BE15" s="7"/>
       <c r="BF15" s="8"/>
-      <c r="BG15" s="7"/>
+      <c r="BG15" s="8"/>
       <c r="BH15" s="7"/>
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
       <c r="BK15" s="7"/>
-      <c r="BL15" s="8"/>
+      <c r="BL15" s="7"/>
       <c r="BM15" s="8"/>
-      <c r="BN15" s="7"/>
+      <c r="BN15" s="8"/>
       <c r="BO15" s="7"/>
       <c r="BP15" s="7"/>
       <c r="BQ15" s="7"/>
       <c r="BR15" s="7"/>
-      <c r="BS15" s="8"/>
+      <c r="BS15" s="7"/>
       <c r="BT15" s="8"/>
-      <c r="BU15" s="7"/>
+      <c r="BU15" s="8"/>
       <c r="BV15" s="7"/>
       <c r="BW15" s="7"/>
       <c r="BX15" s="7"/>
       <c r="BY15" s="7"/>
-      <c r="BZ15" s="8"/>
+      <c r="BZ15" s="7"/>
       <c r="CA15" s="8"/>
-      <c r="CB15" s="7"/>
+      <c r="CB15" s="8"/>
       <c r="CC15" s="7"/>
       <c r="CD15" s="7"/>
       <c r="CE15" s="7"/>
       <c r="CF15" s="7"/>
-      <c r="CG15" s="8"/>
+      <c r="CG15" s="7"/>
       <c r="CH15" s="8"/>
-      <c r="CI15" s="7"/>
+      <c r="CI15" s="8"/>
       <c r="CJ15" s="7"/>
       <c r="CK15" s="7"/>
       <c r="CL15" s="7"/>
       <c r="CM15" s="7"/>
-      <c r="CN15" s="8"/>
+      <c r="CN15" s="7"/>
       <c r="CO15" s="8"/>
-      <c r="CP15" s="7"/>
+      <c r="CP15" s="8"/>
       <c r="CQ15" s="7"/>
       <c r="CR15" s="7"/>
       <c r="CS15" s="7"/>
       <c r="CT15" s="7"/>
-      <c r="CU15" s="8"/>
+      <c r="CU15" s="7"/>
       <c r="CV15" s="8"/>
-      <c r="CW15" s="7"/>
+      <c r="CW15" s="8"/>
       <c r="CX15" s="7"/>
       <c r="CY15" s="7"/>
       <c r="CZ15" s="7"/>
       <c r="DA15" s="7"/>
-      <c r="DB15" s="8"/>
+      <c r="DB15" s="7"/>
       <c r="DC15" s="8"/>
-      <c r="DD15" s="7"/>
+      <c r="DD15" s="8"/>
       <c r="DE15" s="7"/>
       <c r="DF15" s="7"/>
       <c r="DG15" s="7"/>
       <c r="DH15" s="7"/>
-      <c r="DI15" s="8"/>
+      <c r="DI15" s="7"/>
       <c r="DJ15" s="8"/>
-      <c r="DK15" s="7"/>
+      <c r="DK15" s="8"/>
       <c r="DL15" s="7"/>
       <c r="DM15" s="7"/>
       <c r="DN15" s="7"/>
       <c r="DO15" s="7"/>
-      <c r="DP15" s="8"/>
+      <c r="DP15" s="7"/>
       <c r="DQ15" s="8"/>
-      <c r="DR15" s="7"/>
+      <c r="DR15" s="8"/>
       <c r="DS15" s="7"/>
       <c r="DT15" s="7"/>
       <c r="DU15" s="7"/>
       <c r="DV15" s="7"/>
-      <c r="DW15" s="8"/>
+      <c r="DW15" s="7"/>
       <c r="DX15" s="8"/>
-      <c r="DY15" s="7"/>
+      <c r="DY15" s="8"/>
       <c r="DZ15" s="7"/>
       <c r="EA15" s="7"/>
       <c r="EB15" s="7"/>
       <c r="EC15" s="7"/>
-      <c r="ED15" s="8"/>
+      <c r="ED15" s="7"/>
       <c r="EE15" s="8"/>
+      <c r="EF15" s="8"/>
     </row>
-    <row r="16" spans="2:139">
+    <row r="16" spans="2:140">
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42438</v>
-      </c>
-      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1">
+        <v>42485</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <f t="shared" si="35"/>
-        <v>42451</v>
-      </c>
-      <c r="G16" s="6">
+        <v>42496</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="36"/>
-        <v>42437</v>
-      </c>
-      <c r="J16" s="7"/>
+        <v>42482</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="7"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="7"/>
+      <c r="X16" s="8"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="8"/>
+      <c r="AC16" s="7"/>
       <c r="AD16" s="8"/>
-      <c r="AE16" s="7"/>
+      <c r="AE16" s="8"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="7"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="7"/>
+      <c r="AL16" s="8"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
       <c r="AP16" s="7"/>
-      <c r="AQ16" s="8"/>
+      <c r="AQ16" s="7"/>
       <c r="AR16" s="8"/>
-      <c r="AS16" s="7"/>
+      <c r="AS16" s="8"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
       <c r="AW16" s="7"/>
-      <c r="AX16" s="8"/>
+      <c r="AX16" s="7"/>
       <c r="AY16" s="8"/>
-      <c r="AZ16" s="7"/>
+      <c r="AZ16" s="8"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
-      <c r="BE16" s="8"/>
+      <c r="BE16" s="7"/>
       <c r="BF16" s="8"/>
-      <c r="BG16" s="7"/>
+      <c r="BG16" s="8"/>
       <c r="BH16" s="7"/>
       <c r="BI16" s="7"/>
       <c r="BJ16" s="7"/>
       <c r="BK16" s="7"/>
-      <c r="BL16" s="8"/>
+      <c r="BL16" s="7"/>
       <c r="BM16" s="8"/>
-      <c r="BN16" s="7"/>
+      <c r="BN16" s="8"/>
       <c r="BO16" s="7"/>
       <c r="BP16" s="7"/>
       <c r="BQ16" s="7"/>
       <c r="BR16" s="7"/>
-      <c r="BS16" s="8"/>
+      <c r="BS16" s="7"/>
       <c r="BT16" s="8"/>
-      <c r="BU16" s="7"/>
+      <c r="BU16" s="8"/>
       <c r="BV16" s="7"/>
       <c r="BW16" s="7"/>
       <c r="BX16" s="7"/>
       <c r="BY16" s="7"/>
-      <c r="BZ16" s="8"/>
+      <c r="BZ16" s="7"/>
       <c r="CA16" s="8"/>
-      <c r="CB16" s="7"/>
+      <c r="CB16" s="8"/>
       <c r="CC16" s="7"/>
       <c r="CD16" s="7"/>
       <c r="CE16" s="7"/>
       <c r="CF16" s="7"/>
-      <c r="CG16" s="8"/>
+      <c r="CG16" s="7"/>
       <c r="CH16" s="8"/>
-      <c r="CI16" s="7"/>
+      <c r="CI16" s="8"/>
       <c r="CJ16" s="7"/>
       <c r="CK16" s="7"/>
       <c r="CL16" s="7"/>
       <c r="CM16" s="7"/>
-      <c r="CN16" s="8"/>
+      <c r="CN16" s="7"/>
       <c r="CO16" s="8"/>
-      <c r="CP16" s="7"/>
+      <c r="CP16" s="8"/>
       <c r="CQ16" s="7"/>
       <c r="CR16" s="7"/>
       <c r="CS16" s="7"/>
       <c r="CT16" s="7"/>
-      <c r="CU16" s="8"/>
+      <c r="CU16" s="7"/>
       <c r="CV16" s="8"/>
-      <c r="CW16" s="7"/>
+      <c r="CW16" s="8"/>
       <c r="CX16" s="7"/>
       <c r="CY16" s="7"/>
       <c r="CZ16" s="7"/>
       <c r="DA16" s="7"/>
-      <c r="DB16" s="8"/>
+      <c r="DB16" s="7"/>
       <c r="DC16" s="8"/>
-      <c r="DD16" s="7"/>
+      <c r="DD16" s="8"/>
       <c r="DE16" s="7"/>
       <c r="DF16" s="7"/>
       <c r="DG16" s="7"/>
       <c r="DH16" s="7"/>
-      <c r="DI16" s="8"/>
+      <c r="DI16" s="7"/>
       <c r="DJ16" s="8"/>
-      <c r="DK16" s="7"/>
+      <c r="DK16" s="8"/>
       <c r="DL16" s="7"/>
       <c r="DM16" s="7"/>
       <c r="DN16" s="7"/>
       <c r="DO16" s="7"/>
-      <c r="DP16" s="8"/>
+      <c r="DP16" s="7"/>
       <c r="DQ16" s="8"/>
-      <c r="DR16" s="7"/>
+      <c r="DR16" s="8"/>
       <c r="DS16" s="7"/>
       <c r="DT16" s="7"/>
       <c r="DU16" s="7"/>
       <c r="DV16" s="7"/>
-      <c r="DW16" s="8"/>
+      <c r="DW16" s="7"/>
       <c r="DX16" s="8"/>
-      <c r="DY16" s="7"/>
+      <c r="DY16" s="8"/>
       <c r="DZ16" s="7"/>
       <c r="EA16" s="7"/>
       <c r="EB16" s="7"/>
       <c r="EC16" s="7"/>
-      <c r="ED16" s="8"/>
+      <c r="ED16" s="7"/>
       <c r="EE16" s="8"/>
+      <c r="EF16" s="8"/>
     </row>
-    <row r="17" spans="2:135">
+    <row r="17" spans="2:136">
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>42438</v>
-      </c>
-      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1">
+        <v>42485</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="35"/>
-        <v>42451</v>
-      </c>
-      <c r="G17" s="6">
+        <v>42496</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="36"/>
-        <v>42437</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>42482</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
+      <c r="O17" s="7"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
-      <c r="V17" s="8"/>
+      <c r="V17" s="7"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="7"/>
+      <c r="X17" s="8"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="8"/>
+      <c r="AC17" s="7"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="8"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
       <c r="AI17" s="7"/>
-      <c r="AJ17" s="8"/>
+      <c r="AJ17" s="7"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="7"/>
+      <c r="AL17" s="8"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
       <c r="AP17" s="7"/>
-      <c r="AQ17" s="8"/>
+      <c r="AQ17" s="7"/>
       <c r="AR17" s="8"/>
-      <c r="AS17" s="7"/>
+      <c r="AS17" s="8"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
-      <c r="AX17" s="8"/>
+      <c r="AX17" s="7"/>
       <c r="AY17" s="8"/>
-      <c r="AZ17" s="7"/>
+      <c r="AZ17" s="8"/>
       <c r="BA17" s="7"/>
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
       <c r="BD17" s="7"/>
-      <c r="BE17" s="8"/>
+      <c r="BE17" s="7"/>
       <c r="BF17" s="8"/>
-      <c r="BG17" s="7"/>
+      <c r="BG17" s="8"/>
       <c r="BH17" s="7"/>
       <c r="BI17" s="7"/>
       <c r="BJ17" s="7"/>
       <c r="BK17" s="7"/>
-      <c r="BL17" s="8"/>
+      <c r="BL17" s="7"/>
       <c r="BM17" s="8"/>
-      <c r="BN17" s="7"/>
+      <c r="BN17" s="8"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="7"/>
       <c r="BQ17" s="7"/>
       <c r="BR17" s="7"/>
-      <c r="BS17" s="8"/>
+      <c r="BS17" s="7"/>
       <c r="BT17" s="8"/>
-      <c r="BU17" s="7"/>
+      <c r="BU17" s="8"/>
       <c r="BV17" s="7"/>
       <c r="BW17" s="7"/>
       <c r="BX17" s="7"/>
       <c r="BY17" s="7"/>
-      <c r="BZ17" s="8"/>
+      <c r="BZ17" s="7"/>
       <c r="CA17" s="8"/>
-      <c r="CB17" s="7"/>
+      <c r="CB17" s="8"/>
       <c r="CC17" s="7"/>
       <c r="CD17" s="7"/>
       <c r="CE17" s="7"/>
       <c r="CF17" s="7"/>
-      <c r="CG17" s="8"/>
+      <c r="CG17" s="7"/>
       <c r="CH17" s="8"/>
-      <c r="CI17" s="7"/>
+      <c r="CI17" s="8"/>
       <c r="CJ17" s="7"/>
       <c r="CK17" s="7"/>
       <c r="CL17" s="7"/>
       <c r="CM17" s="7"/>
-      <c r="CN17" s="8"/>
+      <c r="CN17" s="7"/>
       <c r="CO17" s="8"/>
-      <c r="CP17" s="7"/>
+      <c r="CP17" s="8"/>
       <c r="CQ17" s="7"/>
       <c r="CR17" s="7"/>
       <c r="CS17" s="7"/>
       <c r="CT17" s="7"/>
-      <c r="CU17" s="8"/>
+      <c r="CU17" s="7"/>
       <c r="CV17" s="8"/>
-      <c r="CW17" s="7"/>
+      <c r="CW17" s="8"/>
       <c r="CX17" s="7"/>
       <c r="CY17" s="7"/>
       <c r="CZ17" s="7"/>
       <c r="DA17" s="7"/>
-      <c r="DB17" s="8"/>
+      <c r="DB17" s="7"/>
       <c r="DC17" s="8"/>
-      <c r="DD17" s="7"/>
+      <c r="DD17" s="8"/>
       <c r="DE17" s="7"/>
       <c r="DF17" s="7"/>
       <c r="DG17" s="7"/>
       <c r="DH17" s="7"/>
-      <c r="DI17" s="8"/>
+      <c r="DI17" s="7"/>
       <c r="DJ17" s="8"/>
-      <c r="DK17" s="7"/>
+      <c r="DK17" s="8"/>
       <c r="DL17" s="7"/>
       <c r="DM17" s="7"/>
       <c r="DN17" s="7"/>
       <c r="DO17" s="7"/>
-      <c r="DP17" s="8"/>
+      <c r="DP17" s="7"/>
       <c r="DQ17" s="8"/>
-      <c r="DR17" s="7"/>
+      <c r="DR17" s="8"/>
       <c r="DS17" s="7"/>
       <c r="DT17" s="7"/>
       <c r="DU17" s="7"/>
       <c r="DV17" s="7"/>
-      <c r="DW17" s="8"/>
+      <c r="DW17" s="7"/>
       <c r="DX17" s="8"/>
-      <c r="DY17" s="7"/>
+      <c r="DY17" s="8"/>
       <c r="DZ17" s="7"/>
       <c r="EA17" s="7"/>
       <c r="EB17" s="7"/>
       <c r="EC17" s="7"/>
-      <c r="ED17" s="8"/>
+      <c r="ED17" s="7"/>
       <c r="EE17" s="8"/>
+      <c r="EF17" s="8"/>
     </row>
-    <row r="18" spans="2:135">
+    <row r="18" spans="2:136">
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42445</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1">
+        <v>42485</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="35"/>
-        <v>42447</v>
-      </c>
-      <c r="G18" s="6">
+        <v>42496</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="36"/>
-        <v>42444</v>
-      </c>
-      <c r="J18" s="7"/>
+        <v>42482</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="8"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="8"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="8"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="8"/>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-      <c r="AC18" s="8"/>
+      <c r="AC18" s="7"/>
       <c r="AD18" s="8"/>
-      <c r="AE18" s="7"/>
+      <c r="AE18" s="8"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="8"/>
+      <c r="AJ18" s="7"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="7"/>
+      <c r="AL18" s="8"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="7"/>
-      <c r="AQ18" s="8"/>
+      <c r="AQ18" s="7"/>
       <c r="AR18" s="8"/>
-      <c r="AS18" s="7"/>
+      <c r="AS18" s="8"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
       <c r="AW18" s="7"/>
-      <c r="AX18" s="8"/>
+      <c r="AX18" s="7"/>
       <c r="AY18" s="8"/>
-      <c r="AZ18" s="7"/>
+      <c r="AZ18" s="8"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
       <c r="BD18" s="7"/>
-      <c r="BE18" s="8"/>
+      <c r="BE18" s="7"/>
       <c r="BF18" s="8"/>
-      <c r="BG18" s="7"/>
+      <c r="BG18" s="8"/>
       <c r="BH18" s="7"/>
       <c r="BI18" s="7"/>
       <c r="BJ18" s="7"/>
       <c r="BK18" s="7"/>
-      <c r="BL18" s="8"/>
+      <c r="BL18" s="7"/>
       <c r="BM18" s="8"/>
-      <c r="BN18" s="7"/>
+      <c r="BN18" s="8"/>
       <c r="BO18" s="7"/>
       <c r="BP18" s="7"/>
       <c r="BQ18" s="7"/>
       <c r="BR18" s="7"/>
-      <c r="BS18" s="8"/>
+      <c r="BS18" s="7"/>
       <c r="BT18" s="8"/>
-      <c r="BU18" s="7"/>
+      <c r="BU18" s="8"/>
       <c r="BV18" s="7"/>
       <c r="BW18" s="7"/>
       <c r="BX18" s="7"/>
       <c r="BY18" s="7"/>
-      <c r="BZ18" s="8"/>
+      <c r="BZ18" s="7"/>
       <c r="CA18" s="8"/>
-      <c r="CB18" s="7"/>
+      <c r="CB18" s="8"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="7"/>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
-      <c r="CG18" s="8"/>
+      <c r="CG18" s="7"/>
       <c r="CH18" s="8"/>
-      <c r="CI18" s="7"/>
+      <c r="CI18" s="8"/>
       <c r="CJ18" s="7"/>
       <c r="CK18" s="7"/>
       <c r="CL18" s="7"/>
       <c r="CM18" s="7"/>
-      <c r="CN18" s="8"/>
+      <c r="CN18" s="7"/>
       <c r="CO18" s="8"/>
-      <c r="CP18" s="7"/>
+      <c r="CP18" s="8"/>
       <c r="CQ18" s="7"/>
       <c r="CR18" s="7"/>
       <c r="CS18" s="7"/>
       <c r="CT18" s="7"/>
-      <c r="CU18" s="8"/>
+      <c r="CU18" s="7"/>
       <c r="CV18" s="8"/>
-      <c r="CW18" s="7"/>
+      <c r="CW18" s="8"/>
       <c r="CX18" s="7"/>
       <c r="CY18" s="7"/>
       <c r="CZ18" s="7"/>
       <c r="DA18" s="7"/>
-      <c r="DB18" s="8"/>
+      <c r="DB18" s="7"/>
       <c r="DC18" s="8"/>
-      <c r="DD18" s="7"/>
+      <c r="DD18" s="8"/>
       <c r="DE18" s="7"/>
       <c r="DF18" s="7"/>
       <c r="DG18" s="7"/>
       <c r="DH18" s="7"/>
-      <c r="DI18" s="8"/>
+      <c r="DI18" s="7"/>
       <c r="DJ18" s="8"/>
-      <c r="DK18" s="7"/>
+      <c r="DK18" s="8"/>
       <c r="DL18" s="7"/>
       <c r="DM18" s="7"/>
       <c r="DN18" s="7"/>
       <c r="DO18" s="7"/>
-      <c r="DP18" s="8"/>
+      <c r="DP18" s="7"/>
       <c r="DQ18" s="8"/>
-      <c r="DR18" s="7"/>
+      <c r="DR18" s="8"/>
       <c r="DS18" s="7"/>
       <c r="DT18" s="7"/>
       <c r="DU18" s="7"/>
       <c r="DV18" s="7"/>
-      <c r="DW18" s="8"/>
+      <c r="DW18" s="7"/>
       <c r="DX18" s="8"/>
-      <c r="DY18" s="7"/>
+      <c r="DY18" s="8"/>
       <c r="DZ18" s="7"/>
       <c r="EA18" s="7"/>
       <c r="EB18" s="7"/>
       <c r="EC18" s="7"/>
-      <c r="ED18" s="8"/>
+      <c r="ED18" s="7"/>
       <c r="EE18" s="8"/>
+      <c r="EF18" s="8"/>
     </row>
-    <row r="19" spans="2:135">
+    <row r="19" spans="2:136">
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42445</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
+        <v>42499</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="35"/>
-        <v>42447</v>
-      </c>
-      <c r="G19" s="6">
+        <v>42500</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="36"/>
-        <v>42444</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>42496</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="8"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
-      <c r="V19" s="8"/>
+      <c r="V19" s="7"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="8"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="8"/>
+      <c r="AC19" s="7"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="8"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="8"/>
+      <c r="AJ19" s="7"/>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="7"/>
+      <c r="AL19" s="8"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
       <c r="AP19" s="7"/>
-      <c r="AQ19" s="8"/>
+      <c r="AQ19" s="7"/>
       <c r="AR19" s="8"/>
-      <c r="AS19" s="7"/>
+      <c r="AS19" s="8"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
       <c r="AW19" s="7"/>
-      <c r="AX19" s="8"/>
+      <c r="AX19" s="7"/>
       <c r="AY19" s="8"/>
-      <c r="AZ19" s="7"/>
+      <c r="AZ19" s="8"/>
       <c r="BA19" s="7"/>
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
-      <c r="BE19" s="8"/>
+      <c r="BE19" s="7"/>
       <c r="BF19" s="8"/>
-      <c r="BG19" s="7"/>
+      <c r="BG19" s="8"/>
       <c r="BH19" s="7"/>
       <c r="BI19" s="7"/>
       <c r="BJ19" s="7"/>
       <c r="BK19" s="7"/>
-      <c r="BL19" s="8"/>
+      <c r="BL19" s="7"/>
       <c r="BM19" s="8"/>
-      <c r="BN19" s="7"/>
+      <c r="BN19" s="8"/>
       <c r="BO19" s="7"/>
       <c r="BP19" s="7"/>
       <c r="BQ19" s="7"/>
       <c r="BR19" s="7"/>
-      <c r="BS19" s="8"/>
+      <c r="BS19" s="7"/>
       <c r="BT19" s="8"/>
-      <c r="BU19" s="7"/>
+      <c r="BU19" s="8"/>
       <c r="BV19" s="7"/>
       <c r="BW19" s="7"/>
       <c r="BX19" s="7"/>
       <c r="BY19" s="7"/>
-      <c r="BZ19" s="8"/>
+      <c r="BZ19" s="7"/>
       <c r="CA19" s="8"/>
-      <c r="CB19" s="7"/>
+      <c r="CB19" s="8"/>
       <c r="CC19" s="7"/>
       <c r="CD19" s="7"/>
       <c r="CE19" s="7"/>
       <c r="CF19" s="7"/>
-      <c r="CG19" s="8"/>
+      <c r="CG19" s="7"/>
       <c r="CH19" s="8"/>
-      <c r="CI19" s="7"/>
+      <c r="CI19" s="8"/>
       <c r="CJ19" s="7"/>
       <c r="CK19" s="7"/>
       <c r="CL19" s="7"/>
       <c r="CM19" s="7"/>
-      <c r="CN19" s="8"/>
+      <c r="CN19" s="7"/>
       <c r="CO19" s="8"/>
-      <c r="CP19" s="7"/>
+      <c r="CP19" s="8"/>
       <c r="CQ19" s="7"/>
       <c r="CR19" s="7"/>
       <c r="CS19" s="7"/>
       <c r="CT19" s="7"/>
-      <c r="CU19" s="8"/>
+      <c r="CU19" s="7"/>
       <c r="CV19" s="8"/>
-      <c r="CW19" s="7"/>
+      <c r="CW19" s="8"/>
       <c r="CX19" s="7"/>
       <c r="CY19" s="7"/>
       <c r="CZ19" s="7"/>
       <c r="DA19" s="7"/>
-      <c r="DB19" s="8"/>
+      <c r="DB19" s="7"/>
       <c r="DC19" s="8"/>
-      <c r="DD19" s="7"/>
+      <c r="DD19" s="8"/>
       <c r="DE19" s="7"/>
       <c r="DF19" s="7"/>
       <c r="DG19" s="7"/>
       <c r="DH19" s="7"/>
-      <c r="DI19" s="8"/>
+      <c r="DI19" s="7"/>
       <c r="DJ19" s="8"/>
-      <c r="DK19" s="7"/>
+      <c r="DK19" s="8"/>
       <c r="DL19" s="7"/>
       <c r="DM19" s="7"/>
       <c r="DN19" s="7"/>
       <c r="DO19" s="7"/>
-      <c r="DP19" s="8"/>
+      <c r="DP19" s="7"/>
       <c r="DQ19" s="8"/>
-      <c r="DR19" s="7"/>
+      <c r="DR19" s="8"/>
       <c r="DS19" s="7"/>
       <c r="DT19" s="7"/>
       <c r="DU19" s="7"/>
       <c r="DV19" s="7"/>
-      <c r="DW19" s="8"/>
+      <c r="DW19" s="7"/>
       <c r="DX19" s="8"/>
-      <c r="DY19" s="7"/>
+      <c r="DY19" s="8"/>
       <c r="DZ19" s="7"/>
       <c r="EA19" s="7"/>
       <c r="EB19" s="7"/>
       <c r="EC19" s="7"/>
-      <c r="ED19" s="8"/>
+      <c r="ED19" s="7"/>
       <c r="EE19" s="8"/>
+      <c r="EF19" s="8"/>
     </row>
-    <row r="20" spans="2:135">
+    <row r="20" spans="2:136">
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42450</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
+        <v>42499</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="35"/>
-        <v>42452</v>
-      </c>
-      <c r="G20" s="6">
+        <v>42500</v>
+      </c>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="36"/>
-        <v>42447</v>
-      </c>
-      <c r="J20" s="7"/>
+        <v>42496</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="8"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
+      <c r="V20" s="7"/>
       <c r="W20" s="8"/>
-      <c r="X20" s="7"/>
+      <c r="X20" s="8"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="8"/>
+      <c r="AC20" s="7"/>
       <c r="AD20" s="8"/>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="8"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-      <c r="AJ20" s="8"/>
+      <c r="AJ20" s="7"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="7"/>
+      <c r="AL20" s="8"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
       <c r="AP20" s="7"/>
-      <c r="AQ20" s="8"/>
+      <c r="AQ20" s="7"/>
       <c r="AR20" s="8"/>
-      <c r="AS20" s="7"/>
+      <c r="AS20" s="8"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
       <c r="AW20" s="7"/>
-      <c r="AX20" s="8"/>
+      <c r="AX20" s="7"/>
       <c r="AY20" s="8"/>
-      <c r="AZ20" s="7"/>
+      <c r="AZ20" s="8"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
-      <c r="BE20" s="8"/>
+      <c r="BE20" s="7"/>
       <c r="BF20" s="8"/>
-      <c r="BG20" s="7"/>
+      <c r="BG20" s="8"/>
       <c r="BH20" s="7"/>
       <c r="BI20" s="7"/>
       <c r="BJ20" s="7"/>
       <c r="BK20" s="7"/>
-      <c r="BL20" s="8"/>
+      <c r="BL20" s="7"/>
       <c r="BM20" s="8"/>
-      <c r="BN20" s="7"/>
+      <c r="BN20" s="8"/>
       <c r="BO20" s="7"/>
       <c r="BP20" s="7"/>
       <c r="BQ20" s="7"/>
       <c r="BR20" s="7"/>
-      <c r="BS20" s="8"/>
+      <c r="BS20" s="7"/>
       <c r="BT20" s="8"/>
-      <c r="BU20" s="7"/>
+      <c r="BU20" s="8"/>
       <c r="BV20" s="7"/>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
       <c r="BY20" s="7"/>
-      <c r="BZ20" s="8"/>
+      <c r="BZ20" s="7"/>
       <c r="CA20" s="8"/>
-      <c r="CB20" s="7"/>
+      <c r="CB20" s="8"/>
       <c r="CC20" s="7"/>
       <c r="CD20" s="7"/>
       <c r="CE20" s="7"/>
       <c r="CF20" s="7"/>
-      <c r="CG20" s="8"/>
+      <c r="CG20" s="7"/>
       <c r="CH20" s="8"/>
-      <c r="CI20" s="7"/>
+      <c r="CI20" s="8"/>
       <c r="CJ20" s="7"/>
       <c r="CK20" s="7"/>
       <c r="CL20" s="7"/>
       <c r="CM20" s="7"/>
-      <c r="CN20" s="8"/>
+      <c r="CN20" s="7"/>
       <c r="CO20" s="8"/>
-      <c r="CP20" s="7"/>
+      <c r="CP20" s="8"/>
       <c r="CQ20" s="7"/>
       <c r="CR20" s="7"/>
       <c r="CS20" s="7"/>
       <c r="CT20" s="7"/>
-      <c r="CU20" s="8"/>
+      <c r="CU20" s="7"/>
       <c r="CV20" s="8"/>
-      <c r="CW20" s="7"/>
+      <c r="CW20" s="8"/>
       <c r="CX20" s="7"/>
       <c r="CY20" s="7"/>
       <c r="CZ20" s="7"/>
       <c r="DA20" s="7"/>
-      <c r="DB20" s="8"/>
+      <c r="DB20" s="7"/>
       <c r="DC20" s="8"/>
-      <c r="DD20" s="7"/>
+      <c r="DD20" s="8"/>
       <c r="DE20" s="7"/>
       <c r="DF20" s="7"/>
       <c r="DG20" s="7"/>
       <c r="DH20" s="7"/>
-      <c r="DI20" s="8"/>
+      <c r="DI20" s="7"/>
       <c r="DJ20" s="8"/>
-      <c r="DK20" s="7"/>
+      <c r="DK20" s="8"/>
       <c r="DL20" s="7"/>
       <c r="DM20" s="7"/>
       <c r="DN20" s="7"/>
       <c r="DO20" s="7"/>
-      <c r="DP20" s="8"/>
+      <c r="DP20" s="7"/>
       <c r="DQ20" s="8"/>
-      <c r="DR20" s="7"/>
+      <c r="DR20" s="8"/>
       <c r="DS20" s="7"/>
       <c r="DT20" s="7"/>
       <c r="DU20" s="7"/>
       <c r="DV20" s="7"/>
-      <c r="DW20" s="8"/>
+      <c r="DW20" s="7"/>
       <c r="DX20" s="8"/>
-      <c r="DY20" s="7"/>
+      <c r="DY20" s="8"/>
       <c r="DZ20" s="7"/>
       <c r="EA20" s="7"/>
       <c r="EB20" s="7"/>
       <c r="EC20" s="7"/>
-      <c r="ED20" s="8"/>
+      <c r="ED20" s="7"/>
       <c r="EE20" s="8"/>
+      <c r="EF20" s="8"/>
     </row>
-    <row r="21" spans="2:135">
+    <row r="21" spans="2:136">
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42450</v>
-      </c>
-      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42501</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <f t="shared" si="35"/>
-        <v>42452</v>
-      </c>
-      <c r="G21" s="6">
+        <v>42503</v>
+      </c>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="36"/>
-        <v>42447</v>
-      </c>
-      <c r="J21" s="7"/>
+        <v>42500</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="8"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="7"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="7"/>
+      <c r="X21" s="8"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="8"/>
+      <c r="AC21" s="7"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="7"/>
+      <c r="AE21" s="8"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
       <c r="AI21" s="7"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="7"/>
+      <c r="AL21" s="8"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="7"/>
-      <c r="AQ21" s="8"/>
+      <c r="AQ21" s="7"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="7"/>
+      <c r="AS21" s="8"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
       <c r="AW21" s="7"/>
-      <c r="AX21" s="8"/>
+      <c r="AX21" s="7"/>
       <c r="AY21" s="8"/>
-      <c r="AZ21" s="7"/>
+      <c r="AZ21" s="8"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="7"/>
       <c r="BC21" s="7"/>
       <c r="BD21" s="7"/>
-      <c r="BE21" s="8"/>
+      <c r="BE21" s="7"/>
       <c r="BF21" s="8"/>
-      <c r="BG21" s="7"/>
+      <c r="BG21" s="8"/>
       <c r="BH21" s="7"/>
       <c r="BI21" s="7"/>
       <c r="BJ21" s="7"/>
       <c r="BK21" s="7"/>
-      <c r="BL21" s="8"/>
+      <c r="BL21" s="7"/>
       <c r="BM21" s="8"/>
-      <c r="BN21" s="7"/>
+      <c r="BN21" s="8"/>
       <c r="BO21" s="7"/>
       <c r="BP21" s="7"/>
       <c r="BQ21" s="7"/>
       <c r="BR21" s="7"/>
-      <c r="BS21" s="8"/>
+      <c r="BS21" s="7"/>
       <c r="BT21" s="8"/>
-      <c r="BU21" s="7"/>
+      <c r="BU21" s="8"/>
       <c r="BV21" s="7"/>
       <c r="BW21" s="7"/>
       <c r="BX21" s="7"/>
       <c r="BY21" s="7"/>
-      <c r="BZ21" s="8"/>
+      <c r="BZ21" s="7"/>
       <c r="CA21" s="8"/>
-      <c r="CB21" s="7"/>
+      <c r="CB21" s="8"/>
       <c r="CC21" s="7"/>
       <c r="CD21" s="7"/>
       <c r="CE21" s="7"/>
       <c r="CF21" s="7"/>
-      <c r="CG21" s="8"/>
+      <c r="CG21" s="7"/>
       <c r="CH21" s="8"/>
-      <c r="CI21" s="7"/>
+      <c r="CI21" s="8"/>
       <c r="CJ21" s="7"/>
       <c r="CK21" s="7"/>
       <c r="CL21" s="7"/>
       <c r="CM21" s="7"/>
-      <c r="CN21" s="8"/>
+      <c r="CN21" s="7"/>
       <c r="CO21" s="8"/>
-      <c r="CP21" s="7"/>
+      <c r="CP21" s="8"/>
       <c r="CQ21" s="7"/>
       <c r="CR21" s="7"/>
       <c r="CS21" s="7"/>
       <c r="CT21" s="7"/>
-      <c r="CU21" s="8"/>
+      <c r="CU21" s="7"/>
       <c r="CV21" s="8"/>
-      <c r="CW21" s="7"/>
+      <c r="CW21" s="8"/>
       <c r="CX21" s="7"/>
       <c r="CY21" s="7"/>
       <c r="CZ21" s="7"/>
       <c r="DA21" s="7"/>
-      <c r="DB21" s="8"/>
+      <c r="DB21" s="7"/>
       <c r="DC21" s="8"/>
-      <c r="DD21" s="7"/>
+      <c r="DD21" s="8"/>
       <c r="DE21" s="7"/>
       <c r="DF21" s="7"/>
       <c r="DG21" s="7"/>
       <c r="DH21" s="7"/>
-      <c r="DI21" s="8"/>
+      <c r="DI21" s="7"/>
       <c r="DJ21" s="8"/>
-      <c r="DK21" s="7"/>
+      <c r="DK21" s="8"/>
       <c r="DL21" s="7"/>
       <c r="DM21" s="7"/>
       <c r="DN21" s="7"/>
       <c r="DO21" s="7"/>
-      <c r="DP21" s="8"/>
+      <c r="DP21" s="7"/>
       <c r="DQ21" s="8"/>
-      <c r="DR21" s="7"/>
+      <c r="DR21" s="8"/>
       <c r="DS21" s="7"/>
       <c r="DT21" s="7"/>
       <c r="DU21" s="7"/>
       <c r="DV21" s="7"/>
-      <c r="DW21" s="8"/>
+      <c r="DW21" s="7"/>
       <c r="DX21" s="8"/>
-      <c r="DY21" s="7"/>
+      <c r="DY21" s="8"/>
       <c r="DZ21" s="7"/>
       <c r="EA21" s="7"/>
       <c r="EB21" s="7"/>
       <c r="EC21" s="7"/>
-      <c r="ED21" s="8"/>
+      <c r="ED21" s="7"/>
       <c r="EE21" s="8"/>
+      <c r="EF21" s="8"/>
     </row>
-    <row r="22" spans="2:135">
+    <row r="22" spans="2:136">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
-        <v>42453</v>
-      </c>
-      <c r="E22">
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>42501</v>
+      </c>
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <f t="shared" si="35"/>
-        <v>42457</v>
-      </c>
-      <c r="G22" s="6">
+        <v>42503</v>
+      </c>
+      <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="36"/>
-        <v>42452</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>42500</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="8"/>
+      <c r="O22" s="7"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="8"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="7"/>
+      <c r="X22" s="8"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="8"/>
+      <c r="AC22" s="7"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="8"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="8"/>
+      <c r="AJ22" s="7"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="7"/>
+      <c r="AL22" s="8"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
       <c r="AP22" s="7"/>
-      <c r="AQ22" s="8"/>
+      <c r="AQ22" s="7"/>
       <c r="AR22" s="8"/>
-      <c r="AS22" s="7"/>
+      <c r="AS22" s="8"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
       <c r="AW22" s="7"/>
-      <c r="AX22" s="8"/>
+      <c r="AX22" s="7"/>
       <c r="AY22" s="8"/>
-      <c r="AZ22" s="7"/>
+      <c r="AZ22" s="8"/>
       <c r="BA22" s="7"/>
       <c r="BB22" s="7"/>
       <c r="BC22" s="7"/>
       <c r="BD22" s="7"/>
-      <c r="BE22" s="8"/>
+      <c r="BE22" s="7"/>
       <c r="BF22" s="8"/>
-      <c r="BG22" s="7"/>
+      <c r="BG22" s="8"/>
       <c r="BH22" s="7"/>
       <c r="BI22" s="7"/>
       <c r="BJ22" s="7"/>
       <c r="BK22" s="7"/>
-      <c r="BL22" s="8"/>
+      <c r="BL22" s="7"/>
       <c r="BM22" s="8"/>
-      <c r="BN22" s="7"/>
+      <c r="BN22" s="8"/>
       <c r="BO22" s="7"/>
       <c r="BP22" s="7"/>
       <c r="BQ22" s="7"/>
       <c r="BR22" s="7"/>
-      <c r="BS22" s="8"/>
+      <c r="BS22" s="7"/>
       <c r="BT22" s="8"/>
-      <c r="BU22" s="7"/>
+      <c r="BU22" s="8"/>
       <c r="BV22" s="7"/>
       <c r="BW22" s="7"/>
       <c r="BX22" s="7"/>
       <c r="BY22" s="7"/>
-      <c r="BZ22" s="8"/>
+      <c r="BZ22" s="7"/>
       <c r="CA22" s="8"/>
-      <c r="CB22" s="7"/>
+      <c r="CB22" s="8"/>
       <c r="CC22" s="7"/>
       <c r="CD22" s="7"/>
       <c r="CE22" s="7"/>
       <c r="CF22" s="7"/>
-      <c r="CG22" s="8"/>
+      <c r="CG22" s="7"/>
       <c r="CH22" s="8"/>
-      <c r="CI22" s="7"/>
+      <c r="CI22" s="8"/>
       <c r="CJ22" s="7"/>
       <c r="CK22" s="7"/>
       <c r="CL22" s="7"/>
       <c r="CM22" s="7"/>
-      <c r="CN22" s="8"/>
+      <c r="CN22" s="7"/>
       <c r="CO22" s="8"/>
-      <c r="CP22" s="7"/>
+      <c r="CP22" s="8"/>
       <c r="CQ22" s="7"/>
       <c r="CR22" s="7"/>
       <c r="CS22" s="7"/>
       <c r="CT22" s="7"/>
-      <c r="CU22" s="8"/>
+      <c r="CU22" s="7"/>
       <c r="CV22" s="8"/>
-      <c r="CW22" s="7"/>
+      <c r="CW22" s="8"/>
       <c r="CX22" s="7"/>
       <c r="CY22" s="7"/>
       <c r="CZ22" s="7"/>
       <c r="DA22" s="7"/>
-      <c r="DB22" s="8"/>
+      <c r="DB22" s="7"/>
       <c r="DC22" s="8"/>
-      <c r="DD22" s="7"/>
+      <c r="DD22" s="8"/>
       <c r="DE22" s="7"/>
       <c r="DF22" s="7"/>
       <c r="DG22" s="7"/>
       <c r="DH22" s="7"/>
-      <c r="DI22" s="8"/>
+      <c r="DI22" s="7"/>
       <c r="DJ22" s="8"/>
-      <c r="DK22" s="7"/>
+      <c r="DK22" s="8"/>
       <c r="DL22" s="7"/>
       <c r="DM22" s="7"/>
       <c r="DN22" s="7"/>
       <c r="DO22" s="7"/>
-      <c r="DP22" s="8"/>
+      <c r="DP22" s="7"/>
       <c r="DQ22" s="8"/>
-      <c r="DR22" s="7"/>
+      <c r="DR22" s="8"/>
       <c r="DS22" s="7"/>
       <c r="DT22" s="7"/>
       <c r="DU22" s="7"/>
       <c r="DV22" s="7"/>
-      <c r="DW22" s="8"/>
+      <c r="DW22" s="7"/>
       <c r="DX22" s="8"/>
-      <c r="DY22" s="7"/>
+      <c r="DY22" s="8"/>
       <c r="DZ22" s="7"/>
       <c r="EA22" s="7"/>
       <c r="EB22" s="7"/>
       <c r="EC22" s="7"/>
-      <c r="ED22" s="8"/>
+      <c r="ED22" s="7"/>
       <c r="EE22" s="8"/>
+      <c r="EF22" s="8"/>
     </row>
-    <row r="23" spans="2:135">
+    <row r="23" spans="2:136">
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42453</v>
-      </c>
-      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42506</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="35"/>
-        <v>42457</v>
-      </c>
-      <c r="G23" s="6">
+        <v>42508</v>
+      </c>
+      <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="36"/>
-        <v>42452</v>
-      </c>
-      <c r="J23" s="7"/>
+        <v>42503</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="7"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="8"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="8"/>
+      <c r="V23" s="7"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="8"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="8"/>
+      <c r="AC23" s="7"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="8"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
       <c r="AI23" s="7"/>
-      <c r="AJ23" s="8"/>
+      <c r="AJ23" s="7"/>
       <c r="AK23" s="8"/>
-      <c r="AL23" s="7"/>
+      <c r="AL23" s="8"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
       <c r="AP23" s="7"/>
-      <c r="AQ23" s="8"/>
+      <c r="AQ23" s="7"/>
       <c r="AR23" s="8"/>
-      <c r="AS23" s="7"/>
+      <c r="AS23" s="8"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
       <c r="AW23" s="7"/>
-      <c r="AX23" s="8"/>
+      <c r="AX23" s="7"/>
       <c r="AY23" s="8"/>
-      <c r="AZ23" s="7"/>
+      <c r="AZ23" s="8"/>
       <c r="BA23" s="7"/>
       <c r="BB23" s="7"/>
       <c r="BC23" s="7"/>
       <c r="BD23" s="7"/>
-      <c r="BE23" s="8"/>
+      <c r="BE23" s="7"/>
       <c r="BF23" s="8"/>
-      <c r="BG23" s="7"/>
+      <c r="BG23" s="8"/>
       <c r="BH23" s="7"/>
       <c r="BI23" s="7"/>
       <c r="BJ23" s="7"/>
       <c r="BK23" s="7"/>
-      <c r="BL23" s="8"/>
+      <c r="BL23" s="7"/>
       <c r="BM23" s="8"/>
-      <c r="BN23" s="7"/>
+      <c r="BN23" s="8"/>
       <c r="BO23" s="7"/>
       <c r="BP23" s="7"/>
       <c r="BQ23" s="7"/>
       <c r="BR23" s="7"/>
-      <c r="BS23" s="8"/>
+      <c r="BS23" s="7"/>
       <c r="BT23" s="8"/>
-      <c r="BU23" s="7"/>
+      <c r="BU23" s="8"/>
       <c r="BV23" s="7"/>
       <c r="BW23" s="7"/>
       <c r="BX23" s="7"/>
       <c r="BY23" s="7"/>
-      <c r="BZ23" s="8"/>
+      <c r="BZ23" s="7"/>
       <c r="CA23" s="8"/>
-      <c r="CB23" s="7"/>
+      <c r="CB23" s="8"/>
       <c r="CC23" s="7"/>
       <c r="CD23" s="7"/>
       <c r="CE23" s="7"/>
       <c r="CF23" s="7"/>
-      <c r="CG23" s="8"/>
+      <c r="CG23" s="7"/>
       <c r="CH23" s="8"/>
-      <c r="CI23" s="7"/>
+      <c r="CI23" s="8"/>
       <c r="CJ23" s="7"/>
       <c r="CK23" s="7"/>
       <c r="CL23" s="7"/>
       <c r="CM23" s="7"/>
-      <c r="CN23" s="8"/>
+      <c r="CN23" s="7"/>
       <c r="CO23" s="8"/>
-      <c r="CP23" s="7"/>
+      <c r="CP23" s="8"/>
       <c r="CQ23" s="7"/>
       <c r="CR23" s="7"/>
       <c r="CS23" s="7"/>
       <c r="CT23" s="7"/>
-      <c r="CU23" s="8"/>
+      <c r="CU23" s="7"/>
       <c r="CV23" s="8"/>
-      <c r="CW23" s="7"/>
+      <c r="CW23" s="8"/>
       <c r="CX23" s="7"/>
       <c r="CY23" s="7"/>
       <c r="CZ23" s="7"/>
       <c r="DA23" s="7"/>
-      <c r="DB23" s="8"/>
+      <c r="DB23" s="7"/>
       <c r="DC23" s="8"/>
-      <c r="DD23" s="7"/>
+      <c r="DD23" s="8"/>
       <c r="DE23" s="7"/>
       <c r="DF23" s="7"/>
       <c r="DG23" s="7"/>
       <c r="DH23" s="7"/>
-      <c r="DI23" s="8"/>
+      <c r="DI23" s="7"/>
       <c r="DJ23" s="8"/>
-      <c r="DK23" s="7"/>
+      <c r="DK23" s="8"/>
       <c r="DL23" s="7"/>
       <c r="DM23" s="7"/>
       <c r="DN23" s="7"/>
       <c r="DO23" s="7"/>
-      <c r="DP23" s="8"/>
+      <c r="DP23" s="7"/>
       <c r="DQ23" s="8"/>
-      <c r="DR23" s="7"/>
+      <c r="DR23" s="8"/>
       <c r="DS23" s="7"/>
       <c r="DT23" s="7"/>
       <c r="DU23" s="7"/>
       <c r="DV23" s="7"/>
-      <c r="DW23" s="8"/>
+      <c r="DW23" s="7"/>
       <c r="DX23" s="8"/>
-      <c r="DY23" s="7"/>
+      <c r="DY23" s="8"/>
       <c r="DZ23" s="7"/>
       <c r="EA23" s="7"/>
       <c r="EB23" s="7"/>
       <c r="EC23" s="7"/>
-      <c r="ED23" s="8"/>
+      <c r="ED23" s="7"/>
       <c r="EE23" s="8"/>
+      <c r="EF23" s="8"/>
     </row>
-    <row r="24" spans="2:135">
+    <row r="24" spans="2:136">
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1">
-        <v>42458</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42506</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="35"/>
-        <v>42458</v>
-      </c>
-      <c r="G24" s="6">
+        <v>42508</v>
+      </c>
+      <c r="H24" s="6">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <f t="shared" si="36"/>
-        <v>42457</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>42503</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="8"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="8"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="8"/>
+      <c r="V24" s="7"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="7"/>
+      <c r="X24" s="8"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
-      <c r="AC24" s="8"/>
+      <c r="AC24" s="7"/>
       <c r="AD24" s="8"/>
-      <c r="AE24" s="7"/>
+      <c r="AE24" s="8"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="7"/>
-      <c r="AJ24" s="8"/>
+      <c r="AJ24" s="7"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="7"/>
+      <c r="AL24" s="8"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="7"/>
-      <c r="AQ24" s="8"/>
+      <c r="AQ24" s="7"/>
       <c r="AR24" s="8"/>
-      <c r="AS24" s="7"/>
+      <c r="AS24" s="8"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
-      <c r="AX24" s="8"/>
+      <c r="AX24" s="7"/>
       <c r="AY24" s="8"/>
-      <c r="AZ24" s="7"/>
+      <c r="AZ24" s="8"/>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
       <c r="BC24" s="7"/>
       <c r="BD24" s="7"/>
-      <c r="BE24" s="8"/>
+      <c r="BE24" s="7"/>
       <c r="BF24" s="8"/>
-      <c r="BG24" s="7"/>
+      <c r="BG24" s="8"/>
       <c r="BH24" s="7"/>
       <c r="BI24" s="7"/>
       <c r="BJ24" s="7"/>
       <c r="BK24" s="7"/>
-      <c r="BL24" s="8"/>
+      <c r="BL24" s="7"/>
       <c r="BM24" s="8"/>
-      <c r="BN24" s="7"/>
+      <c r="BN24" s="8"/>
       <c r="BO24" s="7"/>
       <c r="BP24" s="7"/>
       <c r="BQ24" s="7"/>
       <c r="BR24" s="7"/>
-      <c r="BS24" s="8"/>
+      <c r="BS24" s="7"/>
       <c r="BT24" s="8"/>
-      <c r="BU24" s="7"/>
+      <c r="BU24" s="8"/>
       <c r="BV24" s="7"/>
       <c r="BW24" s="7"/>
       <c r="BX24" s="7"/>
       <c r="BY24" s="7"/>
-      <c r="BZ24" s="8"/>
+      <c r="BZ24" s="7"/>
       <c r="CA24" s="8"/>
-      <c r="CB24" s="7"/>
+      <c r="CB24" s="8"/>
       <c r="CC24" s="7"/>
       <c r="CD24" s="7"/>
       <c r="CE24" s="7"/>
       <c r="CF24" s="7"/>
-      <c r="CG24" s="8"/>
+      <c r="CG24" s="7"/>
       <c r="CH24" s="8"/>
-      <c r="CI24" s="7"/>
+      <c r="CI24" s="8"/>
       <c r="CJ24" s="7"/>
       <c r="CK24" s="7"/>
       <c r="CL24" s="7"/>
       <c r="CM24" s="7"/>
-      <c r="CN24" s="8"/>
+      <c r="CN24" s="7"/>
       <c r="CO24" s="8"/>
-      <c r="CP24" s="7"/>
+      <c r="CP24" s="8"/>
       <c r="CQ24" s="7"/>
       <c r="CR24" s="7"/>
       <c r="CS24" s="7"/>
       <c r="CT24" s="7"/>
-      <c r="CU24" s="8"/>
+      <c r="CU24" s="7"/>
       <c r="CV24" s="8"/>
-      <c r="CW24" s="7"/>
+      <c r="CW24" s="8"/>
       <c r="CX24" s="7"/>
       <c r="CY24" s="7"/>
       <c r="CZ24" s="7"/>
       <c r="DA24" s="7"/>
-      <c r="DB24" s="8"/>
+      <c r="DB24" s="7"/>
       <c r="DC24" s="8"/>
-      <c r="DD24" s="7"/>
+      <c r="DD24" s="8"/>
       <c r="DE24" s="7"/>
       <c r="DF24" s="7"/>
       <c r="DG24" s="7"/>
       <c r="DH24" s="7"/>
-      <c r="DI24" s="8"/>
+      <c r="DI24" s="7"/>
       <c r="DJ24" s="8"/>
-      <c r="DK24" s="7"/>
+      <c r="DK24" s="8"/>
       <c r="DL24" s="7"/>
       <c r="DM24" s="7"/>
       <c r="DN24" s="7"/>
       <c r="DO24" s="7"/>
-      <c r="DP24" s="8"/>
+      <c r="DP24" s="7"/>
       <c r="DQ24" s="8"/>
-      <c r="DR24" s="7"/>
+      <c r="DR24" s="8"/>
       <c r="DS24" s="7"/>
       <c r="DT24" s="7"/>
       <c r="DU24" s="7"/>
       <c r="DV24" s="7"/>
-      <c r="DW24" s="8"/>
+      <c r="DW24" s="7"/>
       <c r="DX24" s="8"/>
-      <c r="DY24" s="7"/>
+      <c r="DY24" s="8"/>
       <c r="DZ24" s="7"/>
       <c r="EA24" s="7"/>
       <c r="EB24" s="7"/>
       <c r="EC24" s="7"/>
-      <c r="ED24" s="8"/>
+      <c r="ED24" s="7"/>
       <c r="EE24" s="8"/>
+      <c r="EF24" s="8"/>
     </row>
-    <row r="25" spans="2:135">
+    <row r="25" spans="2:136">
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42458</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42509</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="35"/>
-        <v>42458</v>
-      </c>
-      <c r="I25" s="1">
+        <v>42510</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
         <f t="shared" si="36"/>
-        <v>42457</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>42508</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="8"/>
+      <c r="O25" s="7"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="8"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
+      <c r="V25" s="7"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="7"/>
+      <c r="X25" s="8"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
-      <c r="AC25" s="8"/>
+      <c r="AC25" s="7"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="7"/>
+      <c r="AE25" s="8"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="7"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="7"/>
+      <c r="AL25" s="8"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
-      <c r="AQ25" s="8"/>
+      <c r="AQ25" s="7"/>
       <c r="AR25" s="8"/>
-      <c r="AS25" s="7"/>
+      <c r="AS25" s="8"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
       <c r="AW25" s="7"/>
-      <c r="AX25" s="8"/>
+      <c r="AX25" s="7"/>
       <c r="AY25" s="8"/>
-      <c r="AZ25" s="7"/>
+      <c r="AZ25" s="8"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
       <c r="BC25" s="7"/>
       <c r="BD25" s="7"/>
-      <c r="BE25" s="8"/>
+      <c r="BE25" s="7"/>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="7"/>
+      <c r="BG25" s="8"/>
       <c r="BH25" s="7"/>
       <c r="BI25" s="7"/>
       <c r="BJ25" s="7"/>
       <c r="BK25" s="7"/>
-      <c r="BL25" s="8"/>
+      <c r="BL25" s="7"/>
       <c r="BM25" s="8"/>
-      <c r="BN25" s="7"/>
+      <c r="BN25" s="8"/>
       <c r="BO25" s="7"/>
       <c r="BP25" s="7"/>
       <c r="BQ25" s="7"/>
       <c r="BR25" s="7"/>
-      <c r="BS25" s="8"/>
+      <c r="BS25" s="7"/>
       <c r="BT25" s="8"/>
-      <c r="BU25" s="7"/>
+      <c r="BU25" s="8"/>
       <c r="BV25" s="7"/>
       <c r="BW25" s="7"/>
       <c r="BX25" s="7"/>
       <c r="BY25" s="7"/>
-      <c r="BZ25" s="8"/>
+      <c r="BZ25" s="7"/>
       <c r="CA25" s="8"/>
-      <c r="CB25" s="7"/>
+      <c r="CB25" s="8"/>
       <c r="CC25" s="7"/>
       <c r="CD25" s="7"/>
       <c r="CE25" s="7"/>
       <c r="CF25" s="7"/>
-      <c r="CG25" s="8"/>
+      <c r="CG25" s="7"/>
       <c r="CH25" s="8"/>
-      <c r="CI25" s="7"/>
+      <c r="CI25" s="8"/>
       <c r="CJ25" s="7"/>
       <c r="CK25" s="7"/>
       <c r="CL25" s="7"/>
       <c r="CM25" s="7"/>
-      <c r="CN25" s="8"/>
+      <c r="CN25" s="7"/>
       <c r="CO25" s="8"/>
-      <c r="CP25" s="7"/>
+      <c r="CP25" s="8"/>
       <c r="CQ25" s="7"/>
       <c r="CR25" s="7"/>
       <c r="CS25" s="7"/>
       <c r="CT25" s="7"/>
-      <c r="CU25" s="8"/>
+      <c r="CU25" s="7"/>
       <c r="CV25" s="8"/>
-      <c r="CW25" s="7"/>
+      <c r="CW25" s="8"/>
       <c r="CX25" s="7"/>
       <c r="CY25" s="7"/>
       <c r="CZ25" s="7"/>
       <c r="DA25" s="7"/>
-      <c r="DB25" s="8"/>
+      <c r="DB25" s="7"/>
       <c r="DC25" s="8"/>
-      <c r="DD25" s="7"/>
+      <c r="DD25" s="8"/>
       <c r="DE25" s="7"/>
       <c r="DF25" s="7"/>
       <c r="DG25" s="7"/>
       <c r="DH25" s="7"/>
-      <c r="DI25" s="8"/>
+      <c r="DI25" s="7"/>
       <c r="DJ25" s="8"/>
-      <c r="DK25" s="7"/>
+      <c r="DK25" s="8"/>
       <c r="DL25" s="7"/>
       <c r="DM25" s="7"/>
       <c r="DN25" s="7"/>
       <c r="DO25" s="7"/>
-      <c r="DP25" s="8"/>
+      <c r="DP25" s="7"/>
       <c r="DQ25" s="8"/>
-      <c r="DR25" s="7"/>
+      <c r="DR25" s="8"/>
       <c r="DS25" s="7"/>
       <c r="DT25" s="7"/>
       <c r="DU25" s="7"/>
       <c r="DV25" s="7"/>
-      <c r="DW25" s="8"/>
+      <c r="DW25" s="7"/>
       <c r="DX25" s="8"/>
-      <c r="DY25" s="7"/>
+      <c r="DY25" s="8"/>
       <c r="DZ25" s="7"/>
       <c r="EA25" s="7"/>
       <c r="EB25" s="7"/>
       <c r="EC25" s="7"/>
-      <c r="ED25" s="8"/>
+      <c r="ED25" s="7"/>
       <c r="EE25" s="8"/>
+      <c r="EF25" s="8"/>
     </row>
-    <row r="26" spans="2:135">
+    <row r="26" spans="2:136">
       <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42459</v>
-      </c>
-      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42509</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <f t="shared" si="35"/>
-        <v>42460</v>
-      </c>
-      <c r="I26" s="1">
+        <v>42510</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="36"/>
-        <v>42458</v>
-      </c>
-      <c r="J26" s="7"/>
+        <v>42508</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="8"/>
+      <c r="O26" s="7"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="8"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="8"/>
+      <c r="V26" s="7"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-      <c r="AC26" s="8"/>
+      <c r="AC26" s="7"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="7"/>
+      <c r="AE26" s="8"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="7"/>
       <c r="AI26" s="7"/>
-      <c r="AJ26" s="8"/>
+      <c r="AJ26" s="7"/>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="7"/>
+      <c r="AL26" s="8"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
       <c r="AP26" s="7"/>
-      <c r="AQ26" s="8"/>
+      <c r="AQ26" s="7"/>
       <c r="AR26" s="8"/>
-      <c r="AS26" s="7"/>
+      <c r="AS26" s="8"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
-      <c r="AX26" s="8"/>
+      <c r="AX26" s="7"/>
       <c r="AY26" s="8"/>
-      <c r="AZ26" s="7"/>
+      <c r="AZ26" s="8"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
       <c r="BC26" s="7"/>
       <c r="BD26" s="7"/>
-      <c r="BE26" s="8"/>
+      <c r="BE26" s="7"/>
       <c r="BF26" s="8"/>
-      <c r="BG26" s="7"/>
+      <c r="BG26" s="8"/>
       <c r="BH26" s="7"/>
       <c r="BI26" s="7"/>
       <c r="BJ26" s="7"/>
       <c r="BK26" s="7"/>
-      <c r="BL26" s="8"/>
+      <c r="BL26" s="7"/>
       <c r="BM26" s="8"/>
-      <c r="BN26" s="7"/>
+      <c r="BN26" s="8"/>
       <c r="BO26" s="7"/>
       <c r="BP26" s="7"/>
       <c r="BQ26" s="7"/>
       <c r="BR26" s="7"/>
-      <c r="BS26" s="8"/>
+      <c r="BS26" s="7"/>
       <c r="BT26" s="8"/>
-      <c r="BU26" s="7"/>
+      <c r="BU26" s="8"/>
       <c r="BV26" s="7"/>
       <c r="BW26" s="7"/>
       <c r="BX26" s="7"/>
       <c r="BY26" s="7"/>
-      <c r="BZ26" s="8"/>
+      <c r="BZ26" s="7"/>
       <c r="CA26" s="8"/>
-      <c r="CB26" s="7"/>
+      <c r="CB26" s="8"/>
       <c r="CC26" s="7"/>
       <c r="CD26" s="7"/>
       <c r="CE26" s="7"/>
       <c r="CF26" s="7"/>
-      <c r="CG26" s="8"/>
+      <c r="CG26" s="7"/>
       <c r="CH26" s="8"/>
-      <c r="CI26" s="7"/>
+      <c r="CI26" s="8"/>
       <c r="CJ26" s="7"/>
       <c r="CK26" s="7"/>
       <c r="CL26" s="7"/>
       <c r="CM26" s="7"/>
-      <c r="CN26" s="8"/>
+      <c r="CN26" s="7"/>
       <c r="CO26" s="8"/>
-      <c r="CP26" s="7"/>
+      <c r="CP26" s="8"/>
       <c r="CQ26" s="7"/>
       <c r="CR26" s="7"/>
       <c r="CS26" s="7"/>
       <c r="CT26" s="7"/>
-      <c r="CU26" s="8"/>
+      <c r="CU26" s="7"/>
       <c r="CV26" s="8"/>
-      <c r="CW26" s="7"/>
+      <c r="CW26" s="8"/>
       <c r="CX26" s="7"/>
       <c r="CY26" s="7"/>
       <c r="CZ26" s="7"/>
       <c r="DA26" s="7"/>
-      <c r="DB26" s="8"/>
+      <c r="DB26" s="7"/>
       <c r="DC26" s="8"/>
-      <c r="DD26" s="7"/>
+      <c r="DD26" s="8"/>
       <c r="DE26" s="7"/>
       <c r="DF26" s="7"/>
       <c r="DG26" s="7"/>
       <c r="DH26" s="7"/>
-      <c r="DI26" s="8"/>
+      <c r="DI26" s="7"/>
       <c r="DJ26" s="8"/>
-      <c r="DK26" s="7"/>
+      <c r="DK26" s="8"/>
       <c r="DL26" s="7"/>
       <c r="DM26" s="7"/>
       <c r="DN26" s="7"/>
       <c r="DO26" s="7"/>
-      <c r="DP26" s="8"/>
+      <c r="DP26" s="7"/>
       <c r="DQ26" s="8"/>
-      <c r="DR26" s="7"/>
+      <c r="DR26" s="8"/>
       <c r="DS26" s="7"/>
       <c r="DT26" s="7"/>
       <c r="DU26" s="7"/>
       <c r="DV26" s="7"/>
-      <c r="DW26" s="8"/>
+      <c r="DW26" s="7"/>
       <c r="DX26" s="8"/>
-      <c r="DY26" s="7"/>
+      <c r="DY26" s="8"/>
       <c r="DZ26" s="7"/>
       <c r="EA26" s="7"/>
       <c r="EB26" s="7"/>
       <c r="EC26" s="7"/>
-      <c r="ED26" s="8"/>
+      <c r="ED26" s="7"/>
       <c r="EE26" s="8"/>
+      <c r="EF26" s="8"/>
     </row>
-    <row r="27" spans="2:135">
+    <row r="27" spans="2:136">
       <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1">
-        <v>42459</v>
-      </c>
-      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F27">
         <v>5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <f t="shared" si="35"/>
-        <v>42465</v>
-      </c>
-      <c r="I27" s="1">
+        <v>42517</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="36"/>
-        <v>42458</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>42510</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="7"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="8"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="7"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="7"/>
+      <c r="X27" s="8"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="8"/>
+      <c r="AC27" s="7"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="7"/>
+      <c r="AE27" s="8"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
       <c r="AI27" s="7"/>
-      <c r="AJ27" s="8"/>
+      <c r="AJ27" s="7"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="7"/>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
-      <c r="AQ27" s="8"/>
+      <c r="AQ27" s="7"/>
       <c r="AR27" s="8"/>
-      <c r="AS27" s="7"/>
+      <c r="AS27" s="8"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7"/>
       <c r="AW27" s="7"/>
-      <c r="AX27" s="8"/>
+      <c r="AX27" s="7"/>
       <c r="AY27" s="8"/>
-      <c r="AZ27" s="7"/>
+      <c r="AZ27" s="8"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
       <c r="BC27" s="7"/>
       <c r="BD27" s="7"/>
-      <c r="BE27" s="8"/>
+      <c r="BE27" s="7"/>
       <c r="BF27" s="8"/>
-      <c r="BG27" s="7"/>
+      <c r="BG27" s="8"/>
       <c r="BH27" s="7"/>
       <c r="BI27" s="7"/>
       <c r="BJ27" s="7"/>
       <c r="BK27" s="7"/>
-      <c r="BL27" s="8"/>
+      <c r="BL27" s="7"/>
       <c r="BM27" s="8"/>
-      <c r="BN27" s="7"/>
+      <c r="BN27" s="8"/>
       <c r="BO27" s="7"/>
       <c r="BP27" s="7"/>
       <c r="BQ27" s="7"/>
       <c r="BR27" s="7"/>
-      <c r="BS27" s="8"/>
+      <c r="BS27" s="7"/>
       <c r="BT27" s="8"/>
-      <c r="BU27" s="7"/>
+      <c r="BU27" s="8"/>
       <c r="BV27" s="7"/>
       <c r="BW27" s="7"/>
       <c r="BX27" s="7"/>
       <c r="BY27" s="7"/>
-      <c r="BZ27" s="8"/>
+      <c r="BZ27" s="7"/>
       <c r="CA27" s="8"/>
-      <c r="CB27" s="7"/>
+      <c r="CB27" s="8"/>
       <c r="CC27" s="7"/>
       <c r="CD27" s="7"/>
       <c r="CE27" s="7"/>
       <c r="CF27" s="7"/>
-      <c r="CG27" s="8"/>
+      <c r="CG27" s="7"/>
       <c r="CH27" s="8"/>
-      <c r="CI27" s="7"/>
+      <c r="CI27" s="8"/>
       <c r="CJ27" s="7"/>
       <c r="CK27" s="7"/>
       <c r="CL27" s="7"/>
       <c r="CM27" s="7"/>
-      <c r="CN27" s="8"/>
+      <c r="CN27" s="7"/>
       <c r="CO27" s="8"/>
-      <c r="CP27" s="7"/>
+      <c r="CP27" s="8"/>
       <c r="CQ27" s="7"/>
       <c r="CR27" s="7"/>
       <c r="CS27" s="7"/>
       <c r="CT27" s="7"/>
-      <c r="CU27" s="8"/>
+      <c r="CU27" s="7"/>
       <c r="CV27" s="8"/>
-      <c r="CW27" s="7"/>
+      <c r="CW27" s="8"/>
       <c r="CX27" s="7"/>
       <c r="CY27" s="7"/>
       <c r="CZ27" s="7"/>
       <c r="DA27" s="7"/>
-      <c r="DB27" s="8"/>
+      <c r="DB27" s="7"/>
       <c r="DC27" s="8"/>
-      <c r="DD27" s="7"/>
+      <c r="DD27" s="8"/>
       <c r="DE27" s="7"/>
       <c r="DF27" s="7"/>
       <c r="DG27" s="7"/>
       <c r="DH27" s="7"/>
-      <c r="DI27" s="8"/>
+      <c r="DI27" s="7"/>
       <c r="DJ27" s="8"/>
-      <c r="DK27" s="7"/>
+      <c r="DK27" s="8"/>
       <c r="DL27" s="7"/>
       <c r="DM27" s="7"/>
       <c r="DN27" s="7"/>
       <c r="DO27" s="7"/>
-      <c r="DP27" s="8"/>
+      <c r="DP27" s="7"/>
       <c r="DQ27" s="8"/>
-      <c r="DR27" s="7"/>
+      <c r="DR27" s="8"/>
       <c r="DS27" s="7"/>
       <c r="DT27" s="7"/>
       <c r="DU27" s="7"/>
       <c r="DV27" s="7"/>
-      <c r="DW27" s="8"/>
+      <c r="DW27" s="7"/>
       <c r="DX27" s="8"/>
-      <c r="DY27" s="7"/>
+      <c r="DY27" s="8"/>
       <c r="DZ27" s="7"/>
       <c r="EA27" s="7"/>
       <c r="EB27" s="7"/>
       <c r="EC27" s="7"/>
-      <c r="ED27" s="8"/>
+      <c r="ED27" s="7"/>
       <c r="EE27" s="8"/>
+      <c r="EF27" s="8"/>
     </row>
-    <row r="28" spans="2:135">
+    <row r="28" spans="2:136">
       <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1">
-        <v>42461</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="35"/>
-        <v>42474</v>
-      </c>
-      <c r="I28" s="1">
+        <v>42517</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="36"/>
-        <v>42460</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>42510</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="7"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="7"/>
+      <c r="Q28" s="8"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="8"/>
+      <c r="V28" s="7"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="7"/>
+      <c r="X28" s="8"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
-      <c r="AC28" s="8"/>
+      <c r="AC28" s="7"/>
       <c r="AD28" s="8"/>
-      <c r="AE28" s="7"/>
+      <c r="AE28" s="8"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="8"/>
+      <c r="AJ28" s="7"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="7"/>
+      <c r="AL28" s="8"/>
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
       <c r="AO28" s="7"/>
       <c r="AP28" s="7"/>
-      <c r="AQ28" s="8"/>
+      <c r="AQ28" s="7"/>
       <c r="AR28" s="8"/>
-      <c r="AS28" s="7"/>
+      <c r="AS28" s="8"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
-      <c r="AX28" s="8"/>
+      <c r="AX28" s="7"/>
       <c r="AY28" s="8"/>
-      <c r="AZ28" s="7"/>
+      <c r="AZ28" s="8"/>
       <c r="BA28" s="7"/>
       <c r="BB28" s="7"/>
       <c r="BC28" s="7"/>
       <c r="BD28" s="7"/>
-      <c r="BE28" s="8"/>
+      <c r="BE28" s="7"/>
       <c r="BF28" s="8"/>
-      <c r="BG28" s="7"/>
+      <c r="BG28" s="8"/>
       <c r="BH28" s="7"/>
       <c r="BI28" s="7"/>
       <c r="BJ28" s="7"/>
       <c r="BK28" s="7"/>
-      <c r="BL28" s="8"/>
+      <c r="BL28" s="7"/>
       <c r="BM28" s="8"/>
-      <c r="BN28" s="7"/>
+      <c r="BN28" s="8"/>
       <c r="BO28" s="7"/>
       <c r="BP28" s="7"/>
       <c r="BQ28" s="7"/>
       <c r="BR28" s="7"/>
-      <c r="BS28" s="8"/>
+      <c r="BS28" s="7"/>
       <c r="BT28" s="8"/>
-      <c r="BU28" s="7"/>
+      <c r="BU28" s="8"/>
       <c r="BV28" s="7"/>
       <c r="BW28" s="7"/>
       <c r="BX28" s="7"/>
       <c r="BY28" s="7"/>
-      <c r="BZ28" s="8"/>
+      <c r="BZ28" s="7"/>
       <c r="CA28" s="8"/>
-      <c r="CB28" s="7"/>
+      <c r="CB28" s="8"/>
       <c r="CC28" s="7"/>
       <c r="CD28" s="7"/>
       <c r="CE28" s="7"/>
       <c r="CF28" s="7"/>
-      <c r="CG28" s="8"/>
+      <c r="CG28" s="7"/>
       <c r="CH28" s="8"/>
-      <c r="CI28" s="7"/>
+      <c r="CI28" s="8"/>
       <c r="CJ28" s="7"/>
       <c r="CK28" s="7"/>
       <c r="CL28" s="7"/>
       <c r="CM28" s="7"/>
-      <c r="CN28" s="8"/>
+      <c r="CN28" s="7"/>
       <c r="CO28" s="8"/>
-      <c r="CP28" s="7"/>
+      <c r="CP28" s="8"/>
       <c r="CQ28" s="7"/>
       <c r="CR28" s="7"/>
       <c r="CS28" s="7"/>
       <c r="CT28" s="7"/>
-      <c r="CU28" s="8"/>
+      <c r="CU28" s="7"/>
       <c r="CV28" s="8"/>
-      <c r="CW28" s="7"/>
+      <c r="CW28" s="8"/>
       <c r="CX28" s="7"/>
       <c r="CY28" s="7"/>
       <c r="CZ28" s="7"/>
       <c r="DA28" s="7"/>
-      <c r="DB28" s="8"/>
+      <c r="DB28" s="7"/>
       <c r="DC28" s="8"/>
-      <c r="DD28" s="7"/>
+      <c r="DD28" s="8"/>
       <c r="DE28" s="7"/>
       <c r="DF28" s="7"/>
       <c r="DG28" s="7"/>
       <c r="DH28" s="7"/>
-      <c r="DI28" s="8"/>
+      <c r="DI28" s="7"/>
       <c r="DJ28" s="8"/>
-      <c r="DK28" s="7"/>
+      <c r="DK28" s="8"/>
       <c r="DL28" s="7"/>
       <c r="DM28" s="7"/>
       <c r="DN28" s="7"/>
       <c r="DO28" s="7"/>
-      <c r="DP28" s="8"/>
+      <c r="DP28" s="7"/>
       <c r="DQ28" s="8"/>
-      <c r="DR28" s="7"/>
+      <c r="DR28" s="8"/>
       <c r="DS28" s="7"/>
       <c r="DT28" s="7"/>
       <c r="DU28" s="7"/>
       <c r="DV28" s="7"/>
-      <c r="DW28" s="8"/>
+      <c r="DW28" s="7"/>
       <c r="DX28" s="8"/>
-      <c r="DY28" s="7"/>
+      <c r="DY28" s="8"/>
       <c r="DZ28" s="7"/>
       <c r="EA28" s="7"/>
       <c r="EB28" s="7"/>
       <c r="EC28" s="7"/>
-      <c r="ED28" s="8"/>
+      <c r="ED28" s="7"/>
       <c r="EE28" s="8"/>
+      <c r="EF28" s="8"/>
     </row>
-    <row r="29" spans="2:135">
+    <row r="29" spans="2:136">
       <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="1">
-        <v>42466</v>
-      </c>
-      <c r="E29">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42499</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="35"/>
-        <v>42489</v>
-      </c>
-      <c r="I29" s="1">
+        <v>42510</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="36"/>
-        <v>42465</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>42496</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="7"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="8"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="8"/>
+      <c r="V29" s="7"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="7"/>
+      <c r="X29" s="8"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
-      <c r="AC29" s="8"/>
+      <c r="AC29" s="7"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="7"/>
+      <c r="AE29" s="8"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
       <c r="AI29" s="7"/>
-      <c r="AJ29" s="8"/>
+      <c r="AJ29" s="7"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="7"/>
+      <c r="AL29" s="8"/>
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
       <c r="AO29" s="7"/>
       <c r="AP29" s="7"/>
-      <c r="AQ29" s="8"/>
+      <c r="AQ29" s="7"/>
       <c r="AR29" s="8"/>
-      <c r="AS29" s="7"/>
+      <c r="AS29" s="8"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7"/>
       <c r="AW29" s="7"/>
-      <c r="AX29" s="8"/>
+      <c r="AX29" s="7"/>
       <c r="AY29" s="8"/>
-      <c r="AZ29" s="7"/>
+      <c r="AZ29" s="8"/>
       <c r="BA29" s="7"/>
       <c r="BB29" s="7"/>
       <c r="BC29" s="7"/>
       <c r="BD29" s="7"/>
-      <c r="BE29" s="8"/>
+      <c r="BE29" s="7"/>
       <c r="BF29" s="8"/>
-      <c r="BG29" s="7"/>
+      <c r="BG29" s="8"/>
       <c r="BH29" s="7"/>
       <c r="BI29" s="7"/>
       <c r="BJ29" s="7"/>
       <c r="BK29" s="7"/>
-      <c r="BL29" s="8"/>
+      <c r="BL29" s="7"/>
       <c r="BM29" s="8"/>
-      <c r="BN29" s="7"/>
+      <c r="BN29" s="8"/>
       <c r="BO29" s="7"/>
       <c r="BP29" s="7"/>
       <c r="BQ29" s="7"/>
       <c r="BR29" s="7"/>
-      <c r="BS29" s="8"/>
+      <c r="BS29" s="7"/>
       <c r="BT29" s="8"/>
-      <c r="BU29" s="7"/>
+      <c r="BU29" s="8"/>
       <c r="BV29" s="7"/>
       <c r="BW29" s="7"/>
       <c r="BX29" s="7"/>
       <c r="BY29" s="7"/>
-      <c r="BZ29" s="8"/>
+      <c r="BZ29" s="7"/>
       <c r="CA29" s="8"/>
-      <c r="CB29" s="7"/>
+      <c r="CB29" s="8"/>
       <c r="CC29" s="7"/>
       <c r="CD29" s="7"/>
       <c r="CE29" s="7"/>
       <c r="CF29" s="7"/>
-      <c r="CG29" s="8"/>
+      <c r="CG29" s="7"/>
       <c r="CH29" s="8"/>
-      <c r="CI29" s="7"/>
+      <c r="CI29" s="8"/>
       <c r="CJ29" s="7"/>
       <c r="CK29" s="7"/>
       <c r="CL29" s="7"/>
       <c r="CM29" s="7"/>
-      <c r="CN29" s="8"/>
+      <c r="CN29" s="7"/>
       <c r="CO29" s="8"/>
-      <c r="CP29" s="7"/>
+      <c r="CP29" s="8"/>
       <c r="CQ29" s="7"/>
       <c r="CR29" s="7"/>
       <c r="CS29" s="7"/>
       <c r="CT29" s="7"/>
-      <c r="CU29" s="8"/>
+      <c r="CU29" s="7"/>
       <c r="CV29" s="8"/>
-      <c r="CW29" s="7"/>
+      <c r="CW29" s="8"/>
       <c r="CX29" s="7"/>
       <c r="CY29" s="7"/>
       <c r="CZ29" s="7"/>
       <c r="DA29" s="7"/>
-      <c r="DB29" s="8"/>
+      <c r="DB29" s="7"/>
       <c r="DC29" s="8"/>
-      <c r="DD29" s="7"/>
+      <c r="DD29" s="8"/>
       <c r="DE29" s="7"/>
       <c r="DF29" s="7"/>
       <c r="DG29" s="7"/>
       <c r="DH29" s="7"/>
-      <c r="DI29" s="8"/>
+      <c r="DI29" s="7"/>
       <c r="DJ29" s="8"/>
-      <c r="DK29" s="7"/>
+      <c r="DK29" s="8"/>
       <c r="DL29" s="7"/>
       <c r="DM29" s="7"/>
       <c r="DN29" s="7"/>
       <c r="DO29" s="7"/>
-      <c r="DP29" s="8"/>
+      <c r="DP29" s="7"/>
       <c r="DQ29" s="8"/>
-      <c r="DR29" s="7"/>
+      <c r="DR29" s="8"/>
       <c r="DS29" s="7"/>
       <c r="DT29" s="7"/>
       <c r="DU29" s="7"/>
       <c r="DV29" s="7"/>
-      <c r="DW29" s="8"/>
+      <c r="DW29" s="7"/>
       <c r="DX29" s="8"/>
-      <c r="DY29" s="7"/>
+      <c r="DY29" s="8"/>
       <c r="DZ29" s="7"/>
       <c r="EA29" s="7"/>
       <c r="EB29" s="7"/>
       <c r="EC29" s="7"/>
-      <c r="ED29" s="8"/>
+      <c r="ED29" s="7"/>
       <c r="EE29" s="8"/>
+      <c r="EF29" s="8"/>
     </row>
-    <row r="30" spans="2:135">
-      <c r="D30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="I30" s="1" t="e">
+    <row r="30" spans="2:136">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>160</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42499</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="35"/>
+        <v>42524</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="36"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J30" s="7"/>
+        <v>42496</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="7"/>
+      <c r="Q30" s="8"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="8"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="7"/>
+      <c r="X30" s="8"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="8"/>
+      <c r="AC30" s="7"/>
       <c r="AD30" s="8"/>
-      <c r="AE30" s="7"/>
+      <c r="AE30" s="8"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
-      <c r="AJ30" s="8"/>
+      <c r="AJ30" s="7"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="7"/>
+      <c r="AL30" s="8"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="7"/>
-      <c r="AQ30" s="8"/>
+      <c r="AQ30" s="7"/>
       <c r="AR30" s="8"/>
-      <c r="AS30" s="7"/>
+      <c r="AS30" s="8"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
       <c r="AW30" s="7"/>
-      <c r="AX30" s="8"/>
+      <c r="AX30" s="7"/>
       <c r="AY30" s="8"/>
-      <c r="AZ30" s="7"/>
+      <c r="AZ30" s="8"/>
       <c r="BA30" s="7"/>
       <c r="BB30" s="7"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
-      <c r="BE30" s="8"/>
+      <c r="BE30" s="7"/>
       <c r="BF30" s="8"/>
-      <c r="BG30" s="7"/>
+      <c r="BG30" s="8"/>
       <c r="BH30" s="7"/>
       <c r="BI30" s="7"/>
       <c r="BJ30" s="7"/>
       <c r="BK30" s="7"/>
-      <c r="BL30" s="8"/>
+      <c r="BL30" s="7"/>
       <c r="BM30" s="8"/>
-      <c r="BN30" s="7"/>
+      <c r="BN30" s="8"/>
       <c r="BO30" s="7"/>
       <c r="BP30" s="7"/>
       <c r="BQ30" s="7"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="8"/>
+      <c r="BS30" s="7"/>
       <c r="BT30" s="8"/>
-      <c r="BU30" s="7"/>
+      <c r="BU30" s="8"/>
       <c r="BV30" s="7"/>
       <c r="BW30" s="7"/>
       <c r="BX30" s="7"/>
       <c r="BY30" s="7"/>
-      <c r="BZ30" s="8"/>
+      <c r="BZ30" s="7"/>
       <c r="CA30" s="8"/>
-      <c r="CB30" s="7"/>
+      <c r="CB30" s="8"/>
       <c r="CC30" s="7"/>
       <c r="CD30" s="7"/>
       <c r="CE30" s="7"/>
       <c r="CF30" s="7"/>
-      <c r="CG30" s="8"/>
+      <c r="CG30" s="7"/>
       <c r="CH30" s="8"/>
-      <c r="CI30" s="7"/>
+      <c r="CI30" s="8"/>
       <c r="CJ30" s="7"/>
       <c r="CK30" s="7"/>
       <c r="CL30" s="7"/>
       <c r="CM30" s="7"/>
-      <c r="CN30" s="8"/>
+      <c r="CN30" s="7"/>
       <c r="CO30" s="8"/>
-      <c r="CP30" s="7"/>
+      <c r="CP30" s="8"/>
       <c r="CQ30" s="7"/>
       <c r="CR30" s="7"/>
       <c r="CS30" s="7"/>
       <c r="CT30" s="7"/>
-      <c r="CU30" s="8"/>
+      <c r="CU30" s="7"/>
       <c r="CV30" s="8"/>
-      <c r="CW30" s="7"/>
+      <c r="CW30" s="8"/>
       <c r="CX30" s="7"/>
       <c r="CY30" s="7"/>
       <c r="CZ30" s="7"/>
       <c r="DA30" s="7"/>
-      <c r="DB30" s="8"/>
+      <c r="DB30" s="7"/>
       <c r="DC30" s="8"/>
-      <c r="DD30" s="7"/>
+      <c r="DD30" s="8"/>
       <c r="DE30" s="7"/>
       <c r="DF30" s="7"/>
       <c r="DG30" s="7"/>
       <c r="DH30" s="7"/>
-      <c r="DI30" s="8"/>
+      <c r="DI30" s="7"/>
       <c r="DJ30" s="8"/>
-      <c r="DK30" s="7"/>
+      <c r="DK30" s="8"/>
       <c r="DL30" s="7"/>
       <c r="DM30" s="7"/>
       <c r="DN30" s="7"/>
       <c r="DO30" s="7"/>
-      <c r="DP30" s="8"/>
+      <c r="DP30" s="7"/>
       <c r="DQ30" s="8"/>
-      <c r="DR30" s="7"/>
+      <c r="DR30" s="8"/>
       <c r="DS30" s="7"/>
       <c r="DT30" s="7"/>
       <c r="DU30" s="7"/>
       <c r="DV30" s="7"/>
-      <c r="DW30" s="8"/>
+      <c r="DW30" s="7"/>
       <c r="DX30" s="8"/>
-      <c r="DY30" s="7"/>
+      <c r="DY30" s="8"/>
       <c r="DZ30" s="7"/>
       <c r="EA30" s="7"/>
       <c r="EB30" s="7"/>
       <c r="EC30" s="7"/>
-      <c r="ED30" s="8"/>
+      <c r="ED30" s="7"/>
       <c r="EE30" s="8"/>
+      <c r="EF30" s="8"/>
     </row>
-    <row r="31" spans="2:135">
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="I31" s="1" t="e">
+    <row r="31" spans="2:136">
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="J31" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="8"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="8"/>
+      <c r="V31" s="7"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="7"/>
+      <c r="X31" s="8"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
-      <c r="AC31" s="8"/>
+      <c r="AC31" s="7"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="7"/>
+      <c r="AE31" s="8"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
-      <c r="AJ31" s="8"/>
+      <c r="AJ31" s="7"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="7"/>
+      <c r="AL31" s="8"/>
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
       <c r="AO31" s="7"/>
       <c r="AP31" s="7"/>
-      <c r="AQ31" s="8"/>
+      <c r="AQ31" s="7"/>
       <c r="AR31" s="8"/>
-      <c r="AS31" s="7"/>
+      <c r="AS31" s="8"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="7"/>
       <c r="AW31" s="7"/>
-      <c r="AX31" s="8"/>
+      <c r="AX31" s="7"/>
       <c r="AY31" s="8"/>
-      <c r="AZ31" s="7"/>
+      <c r="AZ31" s="8"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
       <c r="BC31" s="7"/>
       <c r="BD31" s="7"/>
-      <c r="BE31" s="8"/>
+      <c r="BE31" s="7"/>
       <c r="BF31" s="8"/>
-      <c r="BG31" s="7"/>
+      <c r="BG31" s="8"/>
       <c r="BH31" s="7"/>
       <c r="BI31" s="7"/>
       <c r="BJ31" s="7"/>
       <c r="BK31" s="7"/>
-      <c r="BL31" s="8"/>
+      <c r="BL31" s="7"/>
       <c r="BM31" s="8"/>
-      <c r="BN31" s="7"/>
+      <c r="BN31" s="8"/>
       <c r="BO31" s="7"/>
       <c r="BP31" s="7"/>
       <c r="BQ31" s="7"/>
       <c r="BR31" s="7"/>
-      <c r="BS31" s="8"/>
+      <c r="BS31" s="7"/>
       <c r="BT31" s="8"/>
-      <c r="BU31" s="7"/>
+      <c r="BU31" s="8"/>
       <c r="BV31" s="7"/>
       <c r="BW31" s="7"/>
       <c r="BX31" s="7"/>
       <c r="BY31" s="7"/>
-      <c r="BZ31" s="8"/>
+      <c r="BZ31" s="7"/>
       <c r="CA31" s="8"/>
-      <c r="CB31" s="7"/>
+      <c r="CB31" s="8"/>
       <c r="CC31" s="7"/>
       <c r="CD31" s="7"/>
       <c r="CE31" s="7"/>
       <c r="CF31" s="7"/>
-      <c r="CG31" s="8"/>
+      <c r="CG31" s="7"/>
       <c r="CH31" s="8"/>
-      <c r="CI31" s="7"/>
+      <c r="CI31" s="8"/>
       <c r="CJ31" s="7"/>
       <c r="CK31" s="7"/>
       <c r="CL31" s="7"/>
       <c r="CM31" s="7"/>
-      <c r="CN31" s="8"/>
+      <c r="CN31" s="7"/>
       <c r="CO31" s="8"/>
-      <c r="CP31" s="7"/>
+      <c r="CP31" s="8"/>
       <c r="CQ31" s="7"/>
       <c r="CR31" s="7"/>
       <c r="CS31" s="7"/>
       <c r="CT31" s="7"/>
-      <c r="CU31" s="8"/>
+      <c r="CU31" s="7"/>
       <c r="CV31" s="8"/>
-      <c r="CW31" s="7"/>
+      <c r="CW31" s="8"/>
       <c r="CX31" s="7"/>
       <c r="CY31" s="7"/>
       <c r="CZ31" s="7"/>
       <c r="DA31" s="7"/>
-      <c r="DB31" s="8"/>
+      <c r="DB31" s="7"/>
       <c r="DC31" s="8"/>
-      <c r="DD31" s="7"/>
+      <c r="DD31" s="8"/>
       <c r="DE31" s="7"/>
       <c r="DF31" s="7"/>
       <c r="DG31" s="7"/>
       <c r="DH31" s="7"/>
-      <c r="DI31" s="8"/>
+      <c r="DI31" s="7"/>
       <c r="DJ31" s="8"/>
-      <c r="DK31" s="7"/>
+      <c r="DK31" s="8"/>
       <c r="DL31" s="7"/>
       <c r="DM31" s="7"/>
       <c r="DN31" s="7"/>
       <c r="DO31" s="7"/>
-      <c r="DP31" s="8"/>
+      <c r="DP31" s="7"/>
       <c r="DQ31" s="8"/>
-      <c r="DR31" s="7"/>
+      <c r="DR31" s="8"/>
       <c r="DS31" s="7"/>
       <c r="DT31" s="7"/>
       <c r="DU31" s="7"/>
       <c r="DV31" s="7"/>
-      <c r="DW31" s="8"/>
+      <c r="DW31" s="7"/>
       <c r="DX31" s="8"/>
-      <c r="DY31" s="7"/>
+      <c r="DY31" s="8"/>
       <c r="DZ31" s="7"/>
       <c r="EA31" s="7"/>
       <c r="EB31" s="7"/>
       <c r="EC31" s="7"/>
-      <c r="ED31" s="8"/>
+      <c r="ED31" s="7"/>
       <c r="EE31" s="8"/>
+      <c r="EF31" s="8"/>
     </row>
-    <row r="32" spans="2:135">
-      <c r="D32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="I32" s="1" t="e">
+    <row r="32" spans="2:136">
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="J32" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="8"/>
+      <c r="O32" s="7"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="7"/>
+      <c r="Q32" s="8"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="8"/>
+      <c r="V32" s="7"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="7"/>
+      <c r="X32" s="8"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-      <c r="AC32" s="8"/>
+      <c r="AC32" s="7"/>
       <c r="AD32" s="8"/>
-      <c r="AE32" s="7"/>
+      <c r="AE32" s="8"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="7"/>
-      <c r="AJ32" s="8"/>
+      <c r="AJ32" s="7"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="7"/>
+      <c r="AL32" s="8"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
       <c r="AP32" s="7"/>
-      <c r="AQ32" s="8"/>
+      <c r="AQ32" s="7"/>
       <c r="AR32" s="8"/>
-      <c r="AS32" s="7"/>
+      <c r="AS32" s="8"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
       <c r="AW32" s="7"/>
-      <c r="AX32" s="8"/>
+      <c r="AX32" s="7"/>
       <c r="AY32" s="8"/>
-      <c r="AZ32" s="7"/>
+      <c r="AZ32" s="8"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="7"/>
       <c r="BC32" s="7"/>
       <c r="BD32" s="7"/>
-      <c r="BE32" s="8"/>
+      <c r="BE32" s="7"/>
       <c r="BF32" s="8"/>
-      <c r="BG32" s="7"/>
+      <c r="BG32" s="8"/>
       <c r="BH32" s="7"/>
       <c r="BI32" s="7"/>
       <c r="BJ32" s="7"/>
       <c r="BK32" s="7"/>
-      <c r="BL32" s="8"/>
+      <c r="BL32" s="7"/>
       <c r="BM32" s="8"/>
-      <c r="BN32" s="7"/>
+      <c r="BN32" s="8"/>
       <c r="BO32" s="7"/>
       <c r="BP32" s="7"/>
       <c r="BQ32" s="7"/>
       <c r="BR32" s="7"/>
-      <c r="BS32" s="8"/>
+      <c r="BS32" s="7"/>
       <c r="BT32" s="8"/>
-      <c r="BU32" s="7"/>
+      <c r="BU32" s="8"/>
       <c r="BV32" s="7"/>
       <c r="BW32" s="7"/>
       <c r="BX32" s="7"/>
       <c r="BY32" s="7"/>
-      <c r="BZ32" s="8"/>
+      <c r="BZ32" s="7"/>
       <c r="CA32" s="8"/>
-      <c r="CB32" s="7"/>
+      <c r="CB32" s="8"/>
       <c r="CC32" s="7"/>
       <c r="CD32" s="7"/>
       <c r="CE32" s="7"/>
       <c r="CF32" s="7"/>
-      <c r="CG32" s="8"/>
+      <c r="CG32" s="7"/>
       <c r="CH32" s="8"/>
-      <c r="CI32" s="7"/>
+      <c r="CI32" s="8"/>
       <c r="CJ32" s="7"/>
       <c r="CK32" s="7"/>
       <c r="CL32" s="7"/>
       <c r="CM32" s="7"/>
-      <c r="CN32" s="8"/>
+      <c r="CN32" s="7"/>
       <c r="CO32" s="8"/>
-      <c r="CP32" s="7"/>
+      <c r="CP32" s="8"/>
       <c r="CQ32" s="7"/>
       <c r="CR32" s="7"/>
       <c r="CS32" s="7"/>
       <c r="CT32" s="7"/>
-      <c r="CU32" s="8"/>
+      <c r="CU32" s="7"/>
       <c r="CV32" s="8"/>
-      <c r="CW32" s="7"/>
+      <c r="CW32" s="8"/>
       <c r="CX32" s="7"/>
       <c r="CY32" s="7"/>
       <c r="CZ32" s="7"/>
       <c r="DA32" s="7"/>
-      <c r="DB32" s="8"/>
+      <c r="DB32" s="7"/>
       <c r="DC32" s="8"/>
-      <c r="DD32" s="7"/>
+      <c r="DD32" s="8"/>
       <c r="DE32" s="7"/>
       <c r="DF32" s="7"/>
       <c r="DG32" s="7"/>
       <c r="DH32" s="7"/>
-      <c r="DI32" s="8"/>
+      <c r="DI32" s="7"/>
       <c r="DJ32" s="8"/>
-      <c r="DK32" s="7"/>
+      <c r="DK32" s="8"/>
       <c r="DL32" s="7"/>
       <c r="DM32" s="7"/>
       <c r="DN32" s="7"/>
       <c r="DO32" s="7"/>
-      <c r="DP32" s="8"/>
+      <c r="DP32" s="7"/>
       <c r="DQ32" s="8"/>
-      <c r="DR32" s="7"/>
+      <c r="DR32" s="8"/>
       <c r="DS32" s="7"/>
       <c r="DT32" s="7"/>
       <c r="DU32" s="7"/>
       <c r="DV32" s="7"/>
-      <c r="DW32" s="8"/>
+      <c r="DW32" s="7"/>
       <c r="DX32" s="8"/>
-      <c r="DY32" s="7"/>
+      <c r="DY32" s="8"/>
       <c r="DZ32" s="7"/>
       <c r="EA32" s="7"/>
       <c r="EB32" s="7"/>
       <c r="EC32" s="7"/>
-      <c r="ED32" s="8"/>
+      <c r="ED32" s="7"/>
       <c r="EE32" s="8"/>
+      <c r="EF32" s="8"/>
     </row>
-    <row r="33" spans="4:135">
-      <c r="D33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="I33" s="1" t="e">
+    <row r="33" spans="3:136">
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="J33" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="8"/>
+      <c r="O33" s="7"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="8"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="8"/>
+      <c r="V33" s="7"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="7"/>
+      <c r="X33" s="8"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
-      <c r="AC33" s="8"/>
+      <c r="AC33" s="7"/>
       <c r="AD33" s="8"/>
-      <c r="AE33" s="7"/>
+      <c r="AE33" s="8"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
-      <c r="AJ33" s="8"/>
+      <c r="AJ33" s="7"/>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="7"/>
+      <c r="AL33" s="8"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="7"/>
-      <c r="AQ33" s="8"/>
+      <c r="AQ33" s="7"/>
       <c r="AR33" s="8"/>
-      <c r="AS33" s="7"/>
+      <c r="AS33" s="8"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7"/>
       <c r="AW33" s="7"/>
-      <c r="AX33" s="8"/>
+      <c r="AX33" s="7"/>
       <c r="AY33" s="8"/>
-      <c r="AZ33" s="7"/>
+      <c r="AZ33" s="8"/>
       <c r="BA33" s="7"/>
       <c r="BB33" s="7"/>
       <c r="BC33" s="7"/>
       <c r="BD33" s="7"/>
-      <c r="BE33" s="8"/>
+      <c r="BE33" s="7"/>
       <c r="BF33" s="8"/>
-      <c r="BG33" s="7"/>
+      <c r="BG33" s="8"/>
       <c r="BH33" s="7"/>
       <c r="BI33" s="7"/>
       <c r="BJ33" s="7"/>
       <c r="BK33" s="7"/>
-      <c r="BL33" s="8"/>
+      <c r="BL33" s="7"/>
       <c r="BM33" s="8"/>
-      <c r="BN33" s="7"/>
+      <c r="BN33" s="8"/>
       <c r="BO33" s="7"/>
       <c r="BP33" s="7"/>
       <c r="BQ33" s="7"/>
       <c r="BR33" s="7"/>
-      <c r="BS33" s="8"/>
+      <c r="BS33" s="7"/>
       <c r="BT33" s="8"/>
-      <c r="BU33" s="7"/>
+      <c r="BU33" s="8"/>
       <c r="BV33" s="7"/>
       <c r="BW33" s="7"/>
       <c r="BX33" s="7"/>
       <c r="BY33" s="7"/>
-      <c r="BZ33" s="8"/>
+      <c r="BZ33" s="7"/>
       <c r="CA33" s="8"/>
-      <c r="CB33" s="7"/>
+      <c r="CB33" s="8"/>
       <c r="CC33" s="7"/>
       <c r="CD33" s="7"/>
       <c r="CE33" s="7"/>
       <c r="CF33" s="7"/>
-      <c r="CG33" s="8"/>
+      <c r="CG33" s="7"/>
       <c r="CH33" s="8"/>
-      <c r="CI33" s="7"/>
+      <c r="CI33" s="8"/>
       <c r="CJ33" s="7"/>
       <c r="CK33" s="7"/>
       <c r="CL33" s="7"/>
       <c r="CM33" s="7"/>
-      <c r="CN33" s="8"/>
+      <c r="CN33" s="7"/>
       <c r="CO33" s="8"/>
-      <c r="CP33" s="7"/>
+      <c r="CP33" s="8"/>
       <c r="CQ33" s="7"/>
       <c r="CR33" s="7"/>
       <c r="CS33" s="7"/>
       <c r="CT33" s="7"/>
-      <c r="CU33" s="8"/>
+      <c r="CU33" s="7"/>
       <c r="CV33" s="8"/>
-      <c r="CW33" s="7"/>
+      <c r="CW33" s="8"/>
       <c r="CX33" s="7"/>
       <c r="CY33" s="7"/>
       <c r="CZ33" s="7"/>
       <c r="DA33" s="7"/>
-      <c r="DB33" s="8"/>
+      <c r="DB33" s="7"/>
       <c r="DC33" s="8"/>
-      <c r="DD33" s="7"/>
+      <c r="DD33" s="8"/>
       <c r="DE33" s="7"/>
       <c r="DF33" s="7"/>
       <c r="DG33" s="7"/>
       <c r="DH33" s="7"/>
-      <c r="DI33" s="8"/>
+      <c r="DI33" s="7"/>
       <c r="DJ33" s="8"/>
-      <c r="DK33" s="7"/>
+      <c r="DK33" s="8"/>
       <c r="DL33" s="7"/>
       <c r="DM33" s="7"/>
       <c r="DN33" s="7"/>
       <c r="DO33" s="7"/>
-      <c r="DP33" s="8"/>
+      <c r="DP33" s="7"/>
       <c r="DQ33" s="8"/>
-      <c r="DR33" s="7"/>
+      <c r="DR33" s="8"/>
       <c r="DS33" s="7"/>
       <c r="DT33" s="7"/>
       <c r="DU33" s="7"/>
       <c r="DV33" s="7"/>
-      <c r="DW33" s="8"/>
+      <c r="DW33" s="7"/>
       <c r="DX33" s="8"/>
-      <c r="DY33" s="7"/>
+      <c r="DY33" s="8"/>
       <c r="DZ33" s="7"/>
       <c r="EA33" s="7"/>
       <c r="EB33" s="7"/>
       <c r="EC33" s="7"/>
-      <c r="ED33" s="8"/>
+      <c r="ED33" s="7"/>
       <c r="EE33" s="8"/>
+      <c r="EF33" s="8"/>
     </row>
-    <row r="34" spans="4:135">
-      <c r="D34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="I34" s="1" t="e">
+    <row r="34" spans="3:136">
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="J34" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="8"/>
+      <c r="O34" s="7"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="7"/>
+      <c r="Q34" s="8"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="8"/>
+      <c r="V34" s="7"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="7"/>
+      <c r="X34" s="8"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="7"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="7"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
       <c r="AI34" s="7"/>
-      <c r="AJ34" s="8"/>
+      <c r="AJ34" s="7"/>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="7"/>
+      <c r="AL34" s="8"/>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
       <c r="AP34" s="7"/>
-      <c r="AQ34" s="8"/>
+      <c r="AQ34" s="7"/>
       <c r="AR34" s="8"/>
-      <c r="AS34" s="7"/>
+      <c r="AS34" s="8"/>
       <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
       <c r="AW34" s="7"/>
-      <c r="AX34" s="8"/>
+      <c r="AX34" s="7"/>
       <c r="AY34" s="8"/>
-      <c r="AZ34" s="7"/>
+      <c r="AZ34" s="8"/>
       <c r="BA34" s="7"/>
       <c r="BB34" s="7"/>
       <c r="BC34" s="7"/>
       <c r="BD34" s="7"/>
-      <c r="BE34" s="8"/>
+      <c r="BE34" s="7"/>
       <c r="BF34" s="8"/>
-      <c r="BG34" s="7"/>
+      <c r="BG34" s="8"/>
       <c r="BH34" s="7"/>
       <c r="BI34" s="7"/>
       <c r="BJ34" s="7"/>
       <c r="BK34" s="7"/>
-      <c r="BL34" s="8"/>
+      <c r="BL34" s="7"/>
       <c r="BM34" s="8"/>
-      <c r="BN34" s="7"/>
+      <c r="BN34" s="8"/>
       <c r="BO34" s="7"/>
       <c r="BP34" s="7"/>
       <c r="BQ34" s="7"/>
       <c r="BR34" s="7"/>
-      <c r="BS34" s="8"/>
+      <c r="BS34" s="7"/>
       <c r="BT34" s="8"/>
-      <c r="BU34" s="7"/>
+      <c r="BU34" s="8"/>
       <c r="BV34" s="7"/>
       <c r="BW34" s="7"/>
       <c r="BX34" s="7"/>
       <c r="BY34" s="7"/>
-      <c r="BZ34" s="8"/>
+      <c r="BZ34" s="7"/>
       <c r="CA34" s="8"/>
-      <c r="CB34" s="7"/>
+      <c r="CB34" s="8"/>
       <c r="CC34" s="7"/>
       <c r="CD34" s="7"/>
       <c r="CE34" s="7"/>
       <c r="CF34" s="7"/>
-      <c r="CG34" s="8"/>
+      <c r="CG34" s="7"/>
       <c r="CH34" s="8"/>
-      <c r="CI34" s="7"/>
+      <c r="CI34" s="8"/>
       <c r="CJ34" s="7"/>
       <c r="CK34" s="7"/>
       <c r="CL34" s="7"/>
       <c r="CM34" s="7"/>
-      <c r="CN34" s="8"/>
+      <c r="CN34" s="7"/>
       <c r="CO34" s="8"/>
-      <c r="CP34" s="7"/>
+      <c r="CP34" s="8"/>
       <c r="CQ34" s="7"/>
       <c r="CR34" s="7"/>
       <c r="CS34" s="7"/>
       <c r="CT34" s="7"/>
-      <c r="CU34" s="8"/>
+      <c r="CU34" s="7"/>
       <c r="CV34" s="8"/>
-      <c r="CW34" s="7"/>
+      <c r="CW34" s="8"/>
       <c r="CX34" s="7"/>
       <c r="CY34" s="7"/>
       <c r="CZ34" s="7"/>
       <c r="DA34" s="7"/>
-      <c r="DB34" s="8"/>
+      <c r="DB34" s="7"/>
       <c r="DC34" s="8"/>
-      <c r="DD34" s="7"/>
+      <c r="DD34" s="8"/>
       <c r="DE34" s="7"/>
       <c r="DF34" s="7"/>
       <c r="DG34" s="7"/>
       <c r="DH34" s="7"/>
-      <c r="DI34" s="8"/>
+      <c r="DI34" s="7"/>
       <c r="DJ34" s="8"/>
-      <c r="DK34" s="7"/>
+      <c r="DK34" s="8"/>
       <c r="DL34" s="7"/>
       <c r="DM34" s="7"/>
       <c r="DN34" s="7"/>
       <c r="DO34" s="7"/>
-      <c r="DP34" s="8"/>
+      <c r="DP34" s="7"/>
       <c r="DQ34" s="8"/>
-      <c r="DR34" s="7"/>
+      <c r="DR34" s="8"/>
       <c r="DS34" s="7"/>
       <c r="DT34" s="7"/>
       <c r="DU34" s="7"/>
       <c r="DV34" s="7"/>
-      <c r="DW34" s="8"/>
+      <c r="DW34" s="7"/>
       <c r="DX34" s="8"/>
-      <c r="DY34" s="7"/>
+      <c r="DY34" s="8"/>
       <c r="DZ34" s="7"/>
       <c r="EA34" s="7"/>
       <c r="EB34" s="7"/>
       <c r="EC34" s="7"/>
-      <c r="ED34" s="8"/>
+      <c r="ED34" s="7"/>
       <c r="EE34" s="8"/>
+      <c r="EF34" s="8"/>
     </row>
-    <row r="35" spans="4:135">
-      <c r="D35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="I35" s="1" t="e">
+    <row r="35" spans="3:136">
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="J35" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="8"/>
+      <c r="O35" s="7"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="7"/>
+      <c r="Q35" s="8"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="8"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="8"/>
-      <c r="X35" s="7"/>
+      <c r="X35" s="8"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="8"/>
+      <c r="AC35" s="7"/>
       <c r="AD35" s="8"/>
-      <c r="AE35" s="7"/>
+      <c r="AE35" s="8"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
-      <c r="AJ35" s="8"/>
+      <c r="AJ35" s="7"/>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="7"/>
+      <c r="AL35" s="8"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
-      <c r="AQ35" s="8"/>
+      <c r="AQ35" s="7"/>
       <c r="AR35" s="8"/>
-      <c r="AS35" s="7"/>
+      <c r="AS35" s="8"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
       <c r="AW35" s="7"/>
-      <c r="AX35" s="8"/>
+      <c r="AX35" s="7"/>
       <c r="AY35" s="8"/>
-      <c r="AZ35" s="7"/>
+      <c r="AZ35" s="8"/>
       <c r="BA35" s="7"/>
       <c r="BB35" s="7"/>
       <c r="BC35" s="7"/>
       <c r="BD35" s="7"/>
-      <c r="BE35" s="8"/>
+      <c r="BE35" s="7"/>
       <c r="BF35" s="8"/>
-      <c r="BG35" s="7"/>
+      <c r="BG35" s="8"/>
       <c r="BH35" s="7"/>
       <c r="BI35" s="7"/>
       <c r="BJ35" s="7"/>
       <c r="BK35" s="7"/>
-      <c r="BL35" s="8"/>
+      <c r="BL35" s="7"/>
       <c r="BM35" s="8"/>
-      <c r="BN35" s="7"/>
+      <c r="BN35" s="8"/>
       <c r="BO35" s="7"/>
       <c r="BP35" s="7"/>
       <c r="BQ35" s="7"/>
       <c r="BR35" s="7"/>
-      <c r="BS35" s="8"/>
+      <c r="BS35" s="7"/>
       <c r="BT35" s="8"/>
-      <c r="BU35" s="7"/>
+      <c r="BU35" s="8"/>
       <c r="BV35" s="7"/>
       <c r="BW35" s="7"/>
       <c r="BX35" s="7"/>
       <c r="BY35" s="7"/>
-      <c r="BZ35" s="8"/>
+      <c r="BZ35" s="7"/>
       <c r="CA35" s="8"/>
-      <c r="CB35" s="7"/>
+      <c r="CB35" s="8"/>
       <c r="CC35" s="7"/>
       <c r="CD35" s="7"/>
       <c r="CE35" s="7"/>
       <c r="CF35" s="7"/>
-      <c r="CG35" s="8"/>
+      <c r="CG35" s="7"/>
       <c r="CH35" s="8"/>
-      <c r="CI35" s="7"/>
+      <c r="CI35" s="8"/>
       <c r="CJ35" s="7"/>
       <c r="CK35" s="7"/>
       <c r="CL35" s="7"/>
       <c r="CM35" s="7"/>
-      <c r="CN35" s="8"/>
+      <c r="CN35" s="7"/>
       <c r="CO35" s="8"/>
-      <c r="CP35" s="7"/>
+      <c r="CP35" s="8"/>
       <c r="CQ35" s="7"/>
       <c r="CR35" s="7"/>
       <c r="CS35" s="7"/>
       <c r="CT35" s="7"/>
-      <c r="CU35" s="8"/>
+      <c r="CU35" s="7"/>
       <c r="CV35" s="8"/>
-      <c r="CW35" s="7"/>
+      <c r="CW35" s="8"/>
       <c r="CX35" s="7"/>
       <c r="CY35" s="7"/>
       <c r="CZ35" s="7"/>
       <c r="DA35" s="7"/>
-      <c r="DB35" s="8"/>
+      <c r="DB35" s="7"/>
       <c r="DC35" s="8"/>
-      <c r="DD35" s="7"/>
+      <c r="DD35" s="8"/>
       <c r="DE35" s="7"/>
       <c r="DF35" s="7"/>
       <c r="DG35" s="7"/>
       <c r="DH35" s="7"/>
-      <c r="DI35" s="8"/>
+      <c r="DI35" s="7"/>
       <c r="DJ35" s="8"/>
-      <c r="DK35" s="7"/>
+      <c r="DK35" s="8"/>
       <c r="DL35" s="7"/>
       <c r="DM35" s="7"/>
       <c r="DN35" s="7"/>
       <c r="DO35" s="7"/>
-      <c r="DP35" s="8"/>
+      <c r="DP35" s="7"/>
       <c r="DQ35" s="8"/>
-      <c r="DR35" s="7"/>
+      <c r="DR35" s="8"/>
       <c r="DS35" s="7"/>
       <c r="DT35" s="7"/>
       <c r="DU35" s="7"/>
       <c r="DV35" s="7"/>
-      <c r="DW35" s="8"/>
+      <c r="DW35" s="7"/>
       <c r="DX35" s="8"/>
-      <c r="DY35" s="7"/>
+      <c r="DY35" s="8"/>
       <c r="DZ35" s="7"/>
       <c r="EA35" s="7"/>
       <c r="EB35" s="7"/>
       <c r="EC35" s="7"/>
-      <c r="ED35" s="8"/>
+      <c r="ED35" s="7"/>
       <c r="EE35" s="8"/>
+      <c r="EF35" s="8"/>
     </row>
-    <row r="36" spans="4:135">
-      <c r="D36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="I36" s="1" t="e">
+    <row r="36" spans="3:136">
+      <c r="E36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="J36" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="8"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="7"/>
+      <c r="Q36" s="8"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="8"/>
+      <c r="V36" s="7"/>
       <c r="W36" s="8"/>
-      <c r="X36" s="7"/>
+      <c r="X36" s="8"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
-      <c r="AC36" s="8"/>
+      <c r="AC36" s="7"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="7"/>
+      <c r="AE36" s="8"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
-      <c r="AJ36" s="8"/>
+      <c r="AJ36" s="7"/>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="7"/>
+      <c r="AL36" s="8"/>
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
       <c r="AP36" s="7"/>
-      <c r="AQ36" s="8"/>
+      <c r="AQ36" s="7"/>
       <c r="AR36" s="8"/>
-      <c r="AS36" s="7"/>
+      <c r="AS36" s="8"/>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
       <c r="AW36" s="7"/>
-      <c r="AX36" s="8"/>
+      <c r="AX36" s="7"/>
       <c r="AY36" s="8"/>
-      <c r="AZ36" s="7"/>
+      <c r="AZ36" s="8"/>
       <c r="BA36" s="7"/>
       <c r="BB36" s="7"/>
       <c r="BC36" s="7"/>
       <c r="BD36" s="7"/>
-      <c r="BE36" s="8"/>
+      <c r="BE36" s="7"/>
       <c r="BF36" s="8"/>
-      <c r="BG36" s="7"/>
+      <c r="BG36" s="8"/>
       <c r="BH36" s="7"/>
       <c r="BI36" s="7"/>
       <c r="BJ36" s="7"/>
       <c r="BK36" s="7"/>
-      <c r="BL36" s="8"/>
+      <c r="BL36" s="7"/>
       <c r="BM36" s="8"/>
-      <c r="BN36" s="7"/>
+      <c r="BN36" s="8"/>
       <c r="BO36" s="7"/>
       <c r="BP36" s="7"/>
       <c r="BQ36" s="7"/>
       <c r="BR36" s="7"/>
-      <c r="BS36" s="8"/>
+      <c r="BS36" s="7"/>
       <c r="BT36" s="8"/>
-      <c r="BU36" s="7"/>
+      <c r="BU36" s="8"/>
       <c r="BV36" s="7"/>
       <c r="BW36" s="7"/>
       <c r="BX36" s="7"/>
       <c r="BY36" s="7"/>
-      <c r="BZ36" s="8"/>
+      <c r="BZ36" s="7"/>
       <c r="CA36" s="8"/>
-      <c r="CB36" s="7"/>
+      <c r="CB36" s="8"/>
       <c r="CC36" s="7"/>
       <c r="CD36" s="7"/>
       <c r="CE36" s="7"/>
       <c r="CF36" s="7"/>
-      <c r="CG36" s="8"/>
+      <c r="CG36" s="7"/>
       <c r="CH36" s="8"/>
-      <c r="CI36" s="7"/>
+      <c r="CI36" s="8"/>
       <c r="CJ36" s="7"/>
       <c r="CK36" s="7"/>
       <c r="CL36" s="7"/>
       <c r="CM36" s="7"/>
-      <c r="CN36" s="8"/>
+      <c r="CN36" s="7"/>
       <c r="CO36" s="8"/>
-      <c r="CP36" s="7"/>
+      <c r="CP36" s="8"/>
       <c r="CQ36" s="7"/>
       <c r="CR36" s="7"/>
       <c r="CS36" s="7"/>
       <c r="CT36" s="7"/>
-      <c r="CU36" s="8"/>
+      <c r="CU36" s="7"/>
       <c r="CV36" s="8"/>
-      <c r="CW36" s="7"/>
+      <c r="CW36" s="8"/>
       <c r="CX36" s="7"/>
       <c r="CY36" s="7"/>
       <c r="CZ36" s="7"/>
       <c r="DA36" s="7"/>
-      <c r="DB36" s="8"/>
+      <c r="DB36" s="7"/>
       <c r="DC36" s="8"/>
-      <c r="DD36" s="7"/>
+      <c r="DD36" s="8"/>
       <c r="DE36" s="7"/>
       <c r="DF36" s="7"/>
       <c r="DG36" s="7"/>
       <c r="DH36" s="7"/>
-      <c r="DI36" s="8"/>
+      <c r="DI36" s="7"/>
       <c r="DJ36" s="8"/>
-      <c r="DK36" s="7"/>
+      <c r="DK36" s="8"/>
       <c r="DL36" s="7"/>
       <c r="DM36" s="7"/>
       <c r="DN36" s="7"/>
       <c r="DO36" s="7"/>
-      <c r="DP36" s="8"/>
+      <c r="DP36" s="7"/>
       <c r="DQ36" s="8"/>
-      <c r="DR36" s="7"/>
+      <c r="DR36" s="8"/>
       <c r="DS36" s="7"/>
       <c r="DT36" s="7"/>
       <c r="DU36" s="7"/>
       <c r="DV36" s="7"/>
-      <c r="DW36" s="8"/>
+      <c r="DW36" s="7"/>
       <c r="DX36" s="8"/>
-      <c r="DY36" s="7"/>
+      <c r="DY36" s="8"/>
       <c r="DZ36" s="7"/>
       <c r="EA36" s="7"/>
       <c r="EB36" s="7"/>
       <c r="EC36" s="7"/>
-      <c r="ED36" s="8"/>
+      <c r="ED36" s="7"/>
       <c r="EE36" s="8"/>
+      <c r="EF36" s="8"/>
     </row>
-    <row r="37" spans="4:135">
-      <c r="D37" s="1"/>
-      <c r="I37" s="1" t="e">
+    <row r="37" spans="3:136">
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="J37" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="8"/>
+      <c r="O37" s="7"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="8"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
+      <c r="V37" s="7"/>
       <c r="W37" s="8"/>
-      <c r="X37" s="7"/>
+      <c r="X37" s="8"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
-      <c r="AC37" s="8"/>
+      <c r="AC37" s="7"/>
       <c r="AD37" s="8"/>
-      <c r="AE37" s="7"/>
+      <c r="AE37" s="8"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="7"/>
       <c r="AI37" s="7"/>
-      <c r="AJ37" s="8"/>
+      <c r="AJ37" s="7"/>
       <c r="AK37" s="8"/>
-      <c r="AL37" s="7"/>
+      <c r="AL37" s="8"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
       <c r="AP37" s="7"/>
-      <c r="AQ37" s="8"/>
+      <c r="AQ37" s="7"/>
       <c r="AR37" s="8"/>
-      <c r="AS37" s="7"/>
+      <c r="AS37" s="8"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7"/>
       <c r="AW37" s="7"/>
-      <c r="AX37" s="8"/>
+      <c r="AX37" s="7"/>
       <c r="AY37" s="8"/>
-      <c r="AZ37" s="7"/>
+      <c r="AZ37" s="8"/>
       <c r="BA37" s="7"/>
       <c r="BB37" s="7"/>
       <c r="BC37" s="7"/>
       <c r="BD37" s="7"/>
-      <c r="BE37" s="8"/>
+      <c r="BE37" s="7"/>
       <c r="BF37" s="8"/>
-      <c r="BG37" s="7"/>
+      <c r="BG37" s="8"/>
       <c r="BH37" s="7"/>
       <c r="BI37" s="7"/>
       <c r="BJ37" s="7"/>
       <c r="BK37" s="7"/>
-      <c r="BL37" s="8"/>
+      <c r="BL37" s="7"/>
       <c r="BM37" s="8"/>
-      <c r="BN37" s="7"/>
+      <c r="BN37" s="8"/>
       <c r="BO37" s="7"/>
       <c r="BP37" s="7"/>
       <c r="BQ37" s="7"/>
       <c r="BR37" s="7"/>
-      <c r="BS37" s="8"/>
+      <c r="BS37" s="7"/>
       <c r="BT37" s="8"/>
-      <c r="BU37" s="7"/>
+      <c r="BU37" s="8"/>
       <c r="BV37" s="7"/>
       <c r="BW37" s="7"/>
       <c r="BX37" s="7"/>
       <c r="BY37" s="7"/>
-      <c r="BZ37" s="8"/>
+      <c r="BZ37" s="7"/>
       <c r="CA37" s="8"/>
-      <c r="CB37" s="7"/>
+      <c r="CB37" s="8"/>
       <c r="CC37" s="7"/>
       <c r="CD37" s="7"/>
       <c r="CE37" s="7"/>
       <c r="CF37" s="7"/>
-      <c r="CG37" s="8"/>
+      <c r="CG37" s="7"/>
       <c r="CH37" s="8"/>
-      <c r="CI37" s="7"/>
+      <c r="CI37" s="8"/>
       <c r="CJ37" s="7"/>
       <c r="CK37" s="7"/>
       <c r="CL37" s="7"/>
       <c r="CM37" s="7"/>
-      <c r="CN37" s="8"/>
+      <c r="CN37" s="7"/>
       <c r="CO37" s="8"/>
-      <c r="CP37" s="7"/>
+      <c r="CP37" s="8"/>
       <c r="CQ37" s="7"/>
       <c r="CR37" s="7"/>
       <c r="CS37" s="7"/>
       <c r="CT37" s="7"/>
-      <c r="CU37" s="8"/>
+      <c r="CU37" s="7"/>
       <c r="CV37" s="8"/>
-      <c r="CW37" s="7"/>
+      <c r="CW37" s="8"/>
       <c r="CX37" s="7"/>
       <c r="CY37" s="7"/>
       <c r="CZ37" s="7"/>
       <c r="DA37" s="7"/>
-      <c r="DB37" s="8"/>
+      <c r="DB37" s="7"/>
       <c r="DC37" s="8"/>
-      <c r="DD37" s="7"/>
+      <c r="DD37" s="8"/>
       <c r="DE37" s="7"/>
       <c r="DF37" s="7"/>
       <c r="DG37" s="7"/>
       <c r="DH37" s="7"/>
-      <c r="DI37" s="8"/>
+      <c r="DI37" s="7"/>
       <c r="DJ37" s="8"/>
-      <c r="DK37" s="7"/>
+      <c r="DK37" s="8"/>
       <c r="DL37" s="7"/>
       <c r="DM37" s="7"/>
       <c r="DN37" s="7"/>
       <c r="DO37" s="7"/>
-      <c r="DP37" s="8"/>
+      <c r="DP37" s="7"/>
       <c r="DQ37" s="8"/>
-      <c r="DR37" s="7"/>
+      <c r="DR37" s="8"/>
       <c r="DS37" s="7"/>
       <c r="DT37" s="7"/>
       <c r="DU37" s="7"/>
       <c r="DV37" s="7"/>
-      <c r="DW37" s="8"/>
+      <c r="DW37" s="7"/>
       <c r="DX37" s="8"/>
-      <c r="DY37" s="7"/>
+      <c r="DY37" s="8"/>
       <c r="DZ37" s="7"/>
       <c r="EA37" s="7"/>
       <c r="EB37" s="7"/>
       <c r="EC37" s="7"/>
-      <c r="ED37" s="8"/>
+      <c r="ED37" s="7"/>
       <c r="EE37" s="8"/>
+      <c r="EF37" s="8"/>
     </row>
-    <row r="38" spans="4:135">
-      <c r="D38" s="1"/>
-      <c r="I38" s="1" t="e">
+    <row r="38" spans="3:136">
+      <c r="E38" s="1"/>
+      <c r="J38" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="8"/>
+      <c r="O38" s="7"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="7"/>
+      <c r="Q38" s="8"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
+      <c r="V38" s="7"/>
       <c r="W38" s="8"/>
-      <c r="X38" s="7"/>
+      <c r="X38" s="8"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
-      <c r="AC38" s="8"/>
+      <c r="AC38" s="7"/>
       <c r="AD38" s="8"/>
-      <c r="AE38" s="7"/>
+      <c r="AE38" s="8"/>
       <c r="AF38" s="7"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
-      <c r="AJ38" s="8"/>
+      <c r="AJ38" s="7"/>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="7"/>
+      <c r="AL38" s="8"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
-      <c r="AQ38" s="8"/>
+      <c r="AQ38" s="7"/>
       <c r="AR38" s="8"/>
-      <c r="AS38" s="7"/>
+      <c r="AS38" s="8"/>
       <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
       <c r="AW38" s="7"/>
-      <c r="AX38" s="8"/>
+      <c r="AX38" s="7"/>
       <c r="AY38" s="8"/>
-      <c r="AZ38" s="7"/>
+      <c r="AZ38" s="8"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
       <c r="BD38" s="7"/>
-      <c r="BE38" s="8"/>
+      <c r="BE38" s="7"/>
       <c r="BF38" s="8"/>
-      <c r="BG38" s="7"/>
+      <c r="BG38" s="8"/>
       <c r="BH38" s="7"/>
       <c r="BI38" s="7"/>
       <c r="BJ38" s="7"/>
       <c r="BK38" s="7"/>
-      <c r="BL38" s="8"/>
+      <c r="BL38" s="7"/>
       <c r="BM38" s="8"/>
-      <c r="BN38" s="7"/>
+      <c r="BN38" s="8"/>
       <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
       <c r="BQ38" s="7"/>
       <c r="BR38" s="7"/>
-      <c r="BS38" s="8"/>
+      <c r="BS38" s="7"/>
       <c r="BT38" s="8"/>
-      <c r="BU38" s="7"/>
+      <c r="BU38" s="8"/>
       <c r="BV38" s="7"/>
       <c r="BW38" s="7"/>
       <c r="BX38" s="7"/>
       <c r="BY38" s="7"/>
-      <c r="BZ38" s="8"/>
+      <c r="BZ38" s="7"/>
       <c r="CA38" s="8"/>
-      <c r="CB38" s="7"/>
+      <c r="CB38" s="8"/>
       <c r="CC38" s="7"/>
       <c r="CD38" s="7"/>
       <c r="CE38" s="7"/>
       <c r="CF38" s="7"/>
-      <c r="CG38" s="8"/>
+      <c r="CG38" s="7"/>
       <c r="CH38" s="8"/>
-      <c r="CI38" s="7"/>
+      <c r="CI38" s="8"/>
       <c r="CJ38" s="7"/>
       <c r="CK38" s="7"/>
       <c r="CL38" s="7"/>
       <c r="CM38" s="7"/>
-      <c r="CN38" s="8"/>
+      <c r="CN38" s="7"/>
       <c r="CO38" s="8"/>
-      <c r="CP38" s="7"/>
+      <c r="CP38" s="8"/>
       <c r="CQ38" s="7"/>
       <c r="CR38" s="7"/>
       <c r="CS38" s="7"/>
       <c r="CT38" s="7"/>
-      <c r="CU38" s="8"/>
+      <c r="CU38" s="7"/>
       <c r="CV38" s="8"/>
-      <c r="CW38" s="7"/>
+      <c r="CW38" s="8"/>
       <c r="CX38" s="7"/>
       <c r="CY38" s="7"/>
       <c r="CZ38" s="7"/>
       <c r="DA38" s="7"/>
-      <c r="DB38" s="8"/>
+      <c r="DB38" s="7"/>
       <c r="DC38" s="8"/>
-      <c r="DD38" s="7"/>
+      <c r="DD38" s="8"/>
       <c r="DE38" s="7"/>
       <c r="DF38" s="7"/>
       <c r="DG38" s="7"/>
       <c r="DH38" s="7"/>
-      <c r="DI38" s="8"/>
+      <c r="DI38" s="7"/>
       <c r="DJ38" s="8"/>
-      <c r="DK38" s="7"/>
+      <c r="DK38" s="8"/>
       <c r="DL38" s="7"/>
       <c r="DM38" s="7"/>
       <c r="DN38" s="7"/>
       <c r="DO38" s="7"/>
-      <c r="DP38" s="8"/>
+      <c r="DP38" s="7"/>
       <c r="DQ38" s="8"/>
-      <c r="DR38" s="7"/>
+      <c r="DR38" s="8"/>
       <c r="DS38" s="7"/>
       <c r="DT38" s="7"/>
       <c r="DU38" s="7"/>
       <c r="DV38" s="7"/>
-      <c r="DW38" s="8"/>
+      <c r="DW38" s="7"/>
       <c r="DX38" s="8"/>
-      <c r="DY38" s="7"/>
+      <c r="DY38" s="8"/>
       <c r="DZ38" s="7"/>
       <c r="EA38" s="7"/>
       <c r="EB38" s="7"/>
       <c r="EC38" s="7"/>
-      <c r="ED38" s="8"/>
+      <c r="ED38" s="7"/>
       <c r="EE38" s="8"/>
+      <c r="EF38" s="8"/>
     </row>
-    <row r="39" spans="4:135">
-      <c r="D39" s="1"/>
-      <c r="I39" s="1" t="e">
+    <row r="39" spans="3:136">
+      <c r="E39" s="1"/>
+      <c r="J39" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="8"/>
+      <c r="O39" s="7"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="7"/>
+      <c r="Q39" s="8"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="8"/>
+      <c r="V39" s="7"/>
       <c r="W39" s="8"/>
-      <c r="X39" s="7"/>
+      <c r="X39" s="8"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
-      <c r="AC39" s="8"/>
+      <c r="AC39" s="7"/>
       <c r="AD39" s="8"/>
-      <c r="AE39" s="7"/>
+      <c r="AE39" s="8"/>
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
       <c r="AI39" s="7"/>
-      <c r="AJ39" s="8"/>
+      <c r="AJ39" s="7"/>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="7"/>
+      <c r="AL39" s="8"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="7"/>
-      <c r="AQ39" s="8"/>
+      <c r="AQ39" s="7"/>
       <c r="AR39" s="8"/>
-      <c r="AS39" s="7"/>
+      <c r="AS39" s="8"/>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7"/>
       <c r="AW39" s="7"/>
-      <c r="AX39" s="8"/>
+      <c r="AX39" s="7"/>
       <c r="AY39" s="8"/>
-      <c r="AZ39" s="7"/>
+      <c r="AZ39" s="8"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
       <c r="BC39" s="7"/>
       <c r="BD39" s="7"/>
-      <c r="BE39" s="8"/>
+      <c r="BE39" s="7"/>
       <c r="BF39" s="8"/>
-      <c r="BG39" s="7"/>
+      <c r="BG39" s="8"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
       <c r="BJ39" s="7"/>
       <c r="BK39" s="7"/>
-      <c r="BL39" s="8"/>
+      <c r="BL39" s="7"/>
       <c r="BM39" s="8"/>
-      <c r="BN39" s="7"/>
+      <c r="BN39" s="8"/>
       <c r="BO39" s="7"/>
       <c r="BP39" s="7"/>
       <c r="BQ39" s="7"/>
       <c r="BR39" s="7"/>
-      <c r="BS39" s="8"/>
+      <c r="BS39" s="7"/>
       <c r="BT39" s="8"/>
-      <c r="BU39" s="7"/>
+      <c r="BU39" s="8"/>
       <c r="BV39" s="7"/>
       <c r="BW39" s="7"/>
       <c r="BX39" s="7"/>
       <c r="BY39" s="7"/>
-      <c r="BZ39" s="8"/>
+      <c r="BZ39" s="7"/>
       <c r="CA39" s="8"/>
-      <c r="CB39" s="7"/>
+      <c r="CB39" s="8"/>
       <c r="CC39" s="7"/>
       <c r="CD39" s="7"/>
       <c r="CE39" s="7"/>
       <c r="CF39" s="7"/>
-      <c r="CG39" s="8"/>
+      <c r="CG39" s="7"/>
       <c r="CH39" s="8"/>
-      <c r="CI39" s="7"/>
+      <c r="CI39" s="8"/>
       <c r="CJ39" s="7"/>
       <c r="CK39" s="7"/>
       <c r="CL39" s="7"/>
       <c r="CM39" s="7"/>
-      <c r="CN39" s="8"/>
+      <c r="CN39" s="7"/>
       <c r="CO39" s="8"/>
-      <c r="CP39" s="7"/>
+      <c r="CP39" s="8"/>
       <c r="CQ39" s="7"/>
       <c r="CR39" s="7"/>
       <c r="CS39" s="7"/>
       <c r="CT39" s="7"/>
-      <c r="CU39" s="8"/>
+      <c r="CU39" s="7"/>
       <c r="CV39" s="8"/>
-      <c r="CW39" s="7"/>
+      <c r="CW39" s="8"/>
       <c r="CX39" s="7"/>
       <c r="CY39" s="7"/>
       <c r="CZ39" s="7"/>
       <c r="DA39" s="7"/>
-      <c r="DB39" s="8"/>
+      <c r="DB39" s="7"/>
       <c r="DC39" s="8"/>
-      <c r="DD39" s="7"/>
+      <c r="DD39" s="8"/>
       <c r="DE39" s="7"/>
       <c r="DF39" s="7"/>
       <c r="DG39" s="7"/>
       <c r="DH39" s="7"/>
-      <c r="DI39" s="8"/>
+      <c r="DI39" s="7"/>
       <c r="DJ39" s="8"/>
-      <c r="DK39" s="7"/>
+      <c r="DK39" s="8"/>
       <c r="DL39" s="7"/>
       <c r="DM39" s="7"/>
       <c r="DN39" s="7"/>
       <c r="DO39" s="7"/>
-      <c r="DP39" s="8"/>
+      <c r="DP39" s="7"/>
       <c r="DQ39" s="8"/>
-      <c r="DR39" s="7"/>
+      <c r="DR39" s="8"/>
       <c r="DS39" s="7"/>
       <c r="DT39" s="7"/>
       <c r="DU39" s="7"/>
       <c r="DV39" s="7"/>
-      <c r="DW39" s="8"/>
+      <c r="DW39" s="7"/>
       <c r="DX39" s="8"/>
-      <c r="DY39" s="7"/>
+      <c r="DY39" s="8"/>
       <c r="DZ39" s="7"/>
       <c r="EA39" s="7"/>
       <c r="EB39" s="7"/>
       <c r="EC39" s="7"/>
-      <c r="ED39" s="8"/>
+      <c r="ED39" s="7"/>
       <c r="EE39" s="8"/>
+      <c r="EF39" s="8"/>
     </row>
-    <row r="40" spans="4:135">
-      <c r="D40" s="1"/>
-      <c r="I40" s="1" t="e">
+    <row r="40" spans="3:136">
+      <c r="E40" s="1"/>
+      <c r="J40" s="1" t="e">
         <f t="shared" si="36"/>
         <v>#NUM!</v>
       </c>
-      <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="8"/>
+      <c r="O40" s="7"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="7"/>
+      <c r="Q40" s="8"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="8"/>
+      <c r="V40" s="7"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="7"/>
+      <c r="X40" s="8"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
-      <c r="AC40" s="8"/>
+      <c r="AC40" s="7"/>
       <c r="AD40" s="8"/>
-      <c r="AE40" s="7"/>
+      <c r="AE40" s="8"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
       <c r="AI40" s="7"/>
-      <c r="AJ40" s="8"/>
+      <c r="AJ40" s="7"/>
       <c r="AK40" s="8"/>
-      <c r="AL40" s="7"/>
+      <c r="AL40" s="8"/>
       <c r="AM40" s="7"/>
       <c r="AN40" s="7"/>
       <c r="AO40" s="7"/>
       <c r="AP40" s="7"/>
-      <c r="AQ40" s="8"/>
+      <c r="AQ40" s="7"/>
       <c r="AR40" s="8"/>
-      <c r="AS40" s="7"/>
+      <c r="AS40" s="8"/>
       <c r="AT40" s="7"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="7"/>
       <c r="AW40" s="7"/>
-      <c r="AX40" s="8"/>
+      <c r="AX40" s="7"/>
       <c r="AY40" s="8"/>
-      <c r="AZ40" s="7"/>
+      <c r="AZ40" s="8"/>
       <c r="BA40" s="7"/>
       <c r="BB40" s="7"/>
       <c r="BC40" s="7"/>
       <c r="BD40" s="7"/>
-      <c r="BE40" s="8"/>
+      <c r="BE40" s="7"/>
       <c r="BF40" s="8"/>
-      <c r="BG40" s="7"/>
+      <c r="BG40" s="8"/>
       <c r="BH40" s="7"/>
       <c r="BI40" s="7"/>
       <c r="BJ40" s="7"/>
       <c r="BK40" s="7"/>
-      <c r="BL40" s="8"/>
+      <c r="BL40" s="7"/>
       <c r="BM40" s="8"/>
-      <c r="BN40" s="7"/>
+      <c r="BN40" s="8"/>
       <c r="BO40" s="7"/>
       <c r="BP40" s="7"/>
       <c r="BQ40" s="7"/>
       <c r="BR40" s="7"/>
-      <c r="BS40" s="8"/>
+      <c r="BS40" s="7"/>
       <c r="BT40" s="8"/>
-      <c r="BU40" s="7"/>
+      <c r="BU40" s="8"/>
       <c r="BV40" s="7"/>
       <c r="BW40" s="7"/>
       <c r="BX40" s="7"/>
       <c r="BY40" s="7"/>
-      <c r="BZ40" s="8"/>
+      <c r="BZ40" s="7"/>
       <c r="CA40" s="8"/>
-      <c r="CB40" s="7"/>
+      <c r="CB40" s="8"/>
       <c r="CC40" s="7"/>
       <c r="CD40" s="7"/>
       <c r="CE40" s="7"/>
       <c r="CF40" s="7"/>
-      <c r="CG40" s="8"/>
+      <c r="CG40" s="7"/>
       <c r="CH40" s="8"/>
-      <c r="CI40" s="7"/>
+      <c r="CI40" s="8"/>
       <c r="CJ40" s="7"/>
       <c r="CK40" s="7"/>
       <c r="CL40" s="7"/>
       <c r="CM40" s="7"/>
-      <c r="CN40" s="8"/>
+      <c r="CN40" s="7"/>
       <c r="CO40" s="8"/>
-      <c r="CP40" s="7"/>
+      <c r="CP40" s="8"/>
       <c r="CQ40" s="7"/>
       <c r="CR40" s="7"/>
       <c r="CS40" s="7"/>
       <c r="CT40" s="7"/>
-      <c r="CU40" s="8"/>
+      <c r="CU40" s="7"/>
       <c r="CV40" s="8"/>
-      <c r="CW40" s="7"/>
+      <c r="CW40" s="8"/>
       <c r="CX40" s="7"/>
       <c r="CY40" s="7"/>
       <c r="CZ40" s="7"/>
       <c r="DA40" s="7"/>
-      <c r="DB40" s="8"/>
+      <c r="DB40" s="7"/>
       <c r="DC40" s="8"/>
-      <c r="DD40" s="7"/>
+      <c r="DD40" s="8"/>
       <c r="DE40" s="7"/>
       <c r="DF40" s="7"/>
       <c r="DG40" s="7"/>
       <c r="DH40" s="7"/>
-      <c r="DI40" s="8"/>
+      <c r="DI40" s="7"/>
       <c r="DJ40" s="8"/>
-      <c r="DK40" s="7"/>
+      <c r="DK40" s="8"/>
       <c r="DL40" s="7"/>
       <c r="DM40" s="7"/>
       <c r="DN40" s="7"/>
       <c r="DO40" s="7"/>
-      <c r="DP40" s="8"/>
+      <c r="DP40" s="7"/>
       <c r="DQ40" s="8"/>
-      <c r="DR40" s="7"/>
+      <c r="DR40" s="8"/>
       <c r="DS40" s="7"/>
       <c r="DT40" s="7"/>
       <c r="DU40" s="7"/>
       <c r="DV40" s="7"/>
-      <c r="DW40" s="8"/>
+      <c r="DW40" s="7"/>
       <c r="DX40" s="8"/>
-      <c r="DY40" s="7"/>
+      <c r="DY40" s="8"/>
       <c r="DZ40" s="7"/>
       <c r="EA40" s="7"/>
       <c r="EB40" s="7"/>
       <c r="EC40" s="7"/>
-      <c r="ED40" s="8"/>
+      <c r="ED40" s="7"/>
       <c r="EE40" s="8"/>
+      <c r="EF40" s="8"/>
+    </row>
+    <row r="41" spans="3:136">
+      <c r="E41" s="1"/>
+      <c r="J41" s="1" t="e">
+        <f t="shared" si="36"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="8"/>
+      <c r="AZ41" s="8"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7"/>
+      <c r="BF41" s="8"/>
+      <c r="BG41" s="8"/>
+      <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="7"/>
+      <c r="BL41" s="7"/>
+      <c r="BM41" s="8"/>
+      <c r="BN41" s="8"/>
+      <c r="BO41" s="7"/>
+      <c r="BP41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+      <c r="BT41" s="8"/>
+      <c r="BU41" s="8"/>
+      <c r="BV41" s="7"/>
+      <c r="BW41" s="7"/>
+      <c r="BX41" s="7"/>
+      <c r="BY41" s="7"/>
+      <c r="BZ41" s="7"/>
+      <c r="CA41" s="8"/>
+      <c r="CB41" s="8"/>
+      <c r="CC41" s="7"/>
+      <c r="CD41" s="7"/>
+      <c r="CE41" s="7"/>
+      <c r="CF41" s="7"/>
+      <c r="CG41" s="7"/>
+      <c r="CH41" s="8"/>
+      <c r="CI41" s="8"/>
+      <c r="CJ41" s="7"/>
+      <c r="CK41" s="7"/>
+      <c r="CL41" s="7"/>
+      <c r="CM41" s="7"/>
+      <c r="CN41" s="7"/>
+      <c r="CO41" s="8"/>
+      <c r="CP41" s="8"/>
+      <c r="CQ41" s="7"/>
+      <c r="CR41" s="7"/>
+      <c r="CS41" s="7"/>
+      <c r="CT41" s="7"/>
+      <c r="CU41" s="7"/>
+      <c r="CV41" s="8"/>
+      <c r="CW41" s="8"/>
+      <c r="CX41" s="7"/>
+      <c r="CY41" s="7"/>
+      <c r="CZ41" s="7"/>
+      <c r="DA41" s="7"/>
+      <c r="DB41" s="7"/>
+      <c r="DC41" s="8"/>
+      <c r="DD41" s="8"/>
+      <c r="DE41" s="7"/>
+      <c r="DF41" s="7"/>
+      <c r="DG41" s="7"/>
+      <c r="DH41" s="7"/>
+      <c r="DI41" s="7"/>
+      <c r="DJ41" s="8"/>
+      <c r="DK41" s="8"/>
+      <c r="DL41" s="7"/>
+      <c r="DM41" s="7"/>
+      <c r="DN41" s="7"/>
+      <c r="DO41" s="7"/>
+      <c r="DP41" s="7"/>
+      <c r="DQ41" s="8"/>
+      <c r="DR41" s="8"/>
+      <c r="DS41" s="7"/>
+      <c r="DT41" s="7"/>
+      <c r="DU41" s="7"/>
+      <c r="DV41" s="7"/>
+      <c r="DW41" s="7"/>
+      <c r="DX41" s="8"/>
+      <c r="DY41" s="8"/>
+      <c r="DZ41" s="7"/>
+      <c r="EA41" s="7"/>
+      <c r="EB41" s="7"/>
+      <c r="EC41" s="7"/>
+      <c r="ED41" s="7"/>
+      <c r="EE41" s="8"/>
+      <c r="EF41" s="8"/>
+    </row>
+    <row r="42" spans="3:136">
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D12:D41)</f>
+        <v>794</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="E42:H42" si="37">SUM(F12:F41)</f>
+        <v>102</v>
+      </c>
+      <c r="H42"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="DK9:DQ9"/>
-    <mergeCell ref="DR9:DX9"/>
-    <mergeCell ref="DY9:EE9"/>
-    <mergeCell ref="AS9:AY9"/>
-    <mergeCell ref="AZ9:BF9"/>
-    <mergeCell ref="BG9:BM9"/>
-    <mergeCell ref="BN9:BT9"/>
-    <mergeCell ref="BU9:CA9"/>
-    <mergeCell ref="CB9:CH9"/>
-    <mergeCell ref="DD9:DJ9"/>
-    <mergeCell ref="DY8:EE8"/>
-    <mergeCell ref="AZ8:BF8"/>
-    <mergeCell ref="BG8:BM8"/>
-    <mergeCell ref="BN8:BT8"/>
-    <mergeCell ref="BU8:CA8"/>
-    <mergeCell ref="CB8:CH8"/>
-    <mergeCell ref="CI8:CO8"/>
-    <mergeCell ref="CP8:CV8"/>
-    <mergeCell ref="CW8:DC8"/>
-    <mergeCell ref="DD8:DJ8"/>
-    <mergeCell ref="DK8:DQ8"/>
-    <mergeCell ref="DR8:DX8"/>
-    <mergeCell ref="AS8:AY8"/>
-    <mergeCell ref="CI9:CO9"/>
-    <mergeCell ref="CP9:CV9"/>
-    <mergeCell ref="CW9:DC9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:W8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="AE8:AK8"/>
-    <mergeCell ref="B2:E4"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="AE9:AK9"/>
-    <mergeCell ref="AL9:AR9"/>
-    <mergeCell ref="AL8:AR8"/>
+    <mergeCell ref="DL9:DR9"/>
+    <mergeCell ref="DS9:DY9"/>
+    <mergeCell ref="DZ9:EF9"/>
+    <mergeCell ref="AT9:AZ9"/>
+    <mergeCell ref="BA9:BG9"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="BO9:BU9"/>
+    <mergeCell ref="BV9:CB9"/>
+    <mergeCell ref="CC9:CI9"/>
+    <mergeCell ref="DE9:DK9"/>
+    <mergeCell ref="DZ8:EF8"/>
+    <mergeCell ref="BA8:BG8"/>
+    <mergeCell ref="BH8:BN8"/>
+    <mergeCell ref="BO8:BU8"/>
+    <mergeCell ref="BV8:CB8"/>
+    <mergeCell ref="CC8:CI8"/>
+    <mergeCell ref="CJ8:CP8"/>
+    <mergeCell ref="CQ8:CW8"/>
+    <mergeCell ref="CX8:DD8"/>
+    <mergeCell ref="DE8:DK8"/>
+    <mergeCell ref="DL8:DR8"/>
+    <mergeCell ref="DS8:DY8"/>
+    <mergeCell ref="AT8:AZ8"/>
+    <mergeCell ref="CJ9:CP9"/>
+    <mergeCell ref="CQ9:CW9"/>
+    <mergeCell ref="CX9:DD9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="R8:X8"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AM8:AS8"/>
   </mergeCells>
-  <conditionalFormatting sqref="J12:EI12 EF13:EI30 J13:EE40">
+  <conditionalFormatting sqref="K12:EJ13 EG14:EJ31 K14:EF41">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(J$10&gt;=$D12,J$10&lt;=$F12)</formula>
+      <formula>AND(K$10&gt;=$E12,K$10&lt;=$G12)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
